--- a/Project 2/Project/surveydata3.xlsx
+++ b/Project 2/Project/surveydata3.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamas\Documents\GitHub\Udactity_Data_foundations_nanodegree\Project 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamas\Documents\GitHub\Udactity_Data_foundations_nanodegree\Project 2\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C760EFBC-58DF-4506-80EE-6979D83264D6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590E979B-C7B6-467E-B4EB-1222AF44B287}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6696"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="surveydata3" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">surveydata3!$A$1:$BC$754</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11451" uniqueCount="3407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11453" uniqueCount="3407">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -10447,7 +10459,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -11287,10 +11299,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC754"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -13410,7 +13424,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:54" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -15339,7 +15353,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="45" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:54" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -15704,7 +15718,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="49" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:54" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -16669,7 +16683,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="59" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:54" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -17711,7 +17725,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="70" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:54" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -20929,7 +20943,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="104" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:54" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
@@ -21867,7 +21881,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="114" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:54" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>112</v>
       </c>
@@ -21953,7 +21967,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="115" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:54" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>113</v>
       </c>
@@ -26649,7 +26663,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="165" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:54" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>163</v>
       </c>
@@ -27302,7 +27316,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="172" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:54" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>170</v>
       </c>
@@ -27973,7 +27987,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="179" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:54" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>177</v>
       </c>
@@ -28255,7 +28269,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="182" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:54" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>180</v>
       </c>
@@ -31220,7 +31234,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="214" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:54" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>212</v>
       </c>
@@ -32897,7 +32911,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="232" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:54" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>230</v>
       </c>
@@ -33767,7 +33781,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="241" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:54" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>239</v>
       </c>
@@ -33960,7 +33974,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="243" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:54" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>241</v>
       </c>
@@ -35940,7 +35954,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="264" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:54" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>262</v>
       </c>
@@ -36759,7 +36773,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="273" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:54" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>271</v>
       </c>
@@ -40923,7 +40937,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="318" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:54" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>316</v>
       </c>
@@ -41098,7 +41112,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="320" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:54" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>318</v>
       </c>
@@ -44860,7 +44874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:55" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>359</v>
       </c>
@@ -44961,7 +44975,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="362" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:55" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>360</v>
       </c>
@@ -45154,7 +45168,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="364" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:55" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>362</v>
       </c>
@@ -46638,7 +46652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:55" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>378</v>
       </c>
@@ -48045,7 +48059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:55" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>393</v>
       </c>
@@ -48983,7 +48997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:55" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>403</v>
       </c>
@@ -49654,7 +49668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:55" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>410</v>
       </c>
@@ -50601,7 +50615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:55" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>420</v>
       </c>
@@ -51426,7 +51440,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="431" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:55" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>429</v>
       </c>
@@ -53002,7 +53016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:55" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>446</v>
       </c>
@@ -53845,7 +53859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:55" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>455</v>
       </c>
@@ -54459,7 +54473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:55" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>462</v>
       </c>
@@ -54723,7 +54737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:55" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>465</v>
       </c>
@@ -55881,7 +55895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:55" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>477</v>
       </c>
@@ -56454,7 +56468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:55" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>483</v>
       </c>
@@ -56828,7 +56842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:55" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>487</v>
       </c>
@@ -56911,7 +56925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:55" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>488</v>
       </c>
@@ -57015,7 +57029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:55" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>489</v>
       </c>
@@ -57107,7 +57121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:55" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>490</v>
       </c>
@@ -61131,7 +61145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:55" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>534</v>
       </c>
@@ -62078,7 +62092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:55" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>544</v>
       </c>
@@ -62455,7 +62469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:55" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>548</v>
       </c>
@@ -62630,7 +62644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:55" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>550</v>
       </c>
@@ -62731,7 +62745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:55" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>551</v>
       </c>
@@ -63488,7 +63502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:55" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>559</v>
       </c>
@@ -63586,7 +63600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:55" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>560</v>
       </c>
@@ -64304,7 +64318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:55" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>568</v>
       </c>
@@ -66224,7 +66238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:55" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>589</v>
       </c>
@@ -68132,7 +68146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:55" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>610</v>
       </c>
@@ -69215,7 +69229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:55" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>622</v>
       </c>
@@ -69399,7 +69413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:55" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>624</v>
       </c>
@@ -69681,7 +69695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:55" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>627</v>
       </c>
@@ -69779,7 +69793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:55" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>628</v>
       </c>
@@ -70224,7 +70238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:55" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>633</v>
       </c>
@@ -70322,7 +70336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:55" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>634</v>
       </c>
@@ -70788,7 +70802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:55" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A641">
         <v>639</v>
       </c>
@@ -72853,7 +72867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:55" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A664">
         <v>662</v>
       </c>
@@ -72948,7 +72962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:55" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A665">
         <v>663</v>
       </c>
@@ -73040,7 +73054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:55" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A666">
         <v>664</v>
       </c>
@@ -73212,7 +73226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="668" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:55" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A668">
         <v>666</v>
       </c>
@@ -73779,7 +73793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:55" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A674">
         <v>672</v>
       </c>
@@ -75334,7 +75348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:55" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A691">
         <v>689</v>
       </c>
@@ -76073,7 +76087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:55" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A699">
         <v>697</v>
       </c>
@@ -77708,7 +77722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="717" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:55" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A717">
         <v>715</v>
       </c>
@@ -78972,7 +78986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:55" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A731">
         <v>729</v>
       </c>
@@ -79260,7 +79274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="734" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:55" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A734">
         <v>732</v>
       </c>
@@ -79542,7 +79556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="737" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:55" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A737">
         <v>735</v>
       </c>
@@ -80355,7 +80369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:55" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A746">
         <v>744</v>
       </c>
@@ -80447,7 +80461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:55" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A747">
         <v>745</v>
       </c>
@@ -80634,7 +80648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="749" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:55" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A749">
         <v>747</v>
       </c>
@@ -80907,7 +80921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:55" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A752">
         <v>750</v>
       </c>
@@ -81184,6 +81198,6046 @@
       </c>
       <c r="BC754">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:BC754" xr:uid="{3C6C6062-109C-4A0B-9A8D-06DA97DC0A04}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634B806C-0FC6-4B7A-A55D-966D8B339180}">
+  <dimension ref="A1:K754"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>45</v>
+      </c>
+      <c r="C4">
+        <f>MEDIAN(A2:A754)</f>
+        <v>35</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <f>AVERAGE(H2:H754)</f>
+        <v>12180.222370173102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>65</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>240</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>35</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>40</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>30</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>120</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>30</v>
+      </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>50</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>120</v>
+      </c>
+      <c r="H18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>40</v>
+      </c>
+      <c r="H21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>30</v>
+      </c>
+      <c r="H22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>180</v>
+      </c>
+      <c r="H24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>60</v>
+      </c>
+      <c r="H25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>30</v>
+      </c>
+      <c r="H26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>45</v>
+      </c>
+      <c r="H27">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>30</v>
+      </c>
+      <c r="H28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>30</v>
+      </c>
+      <c r="H29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>40</v>
+      </c>
+      <c r="H30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>150</v>
+      </c>
+      <c r="H32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>100</v>
+      </c>
+      <c r="H34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>120</v>
+      </c>
+      <c r="H35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>70</v>
+      </c>
+      <c r="H36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>90</v>
+      </c>
+      <c r="H37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>50</v>
+      </c>
+      <c r="H38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>60</v>
+      </c>
+      <c r="H39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>50</v>
+      </c>
+      <c r="H40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>60</v>
+      </c>
+      <c r="H41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>150</v>
+      </c>
+      <c r="H42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>50</v>
+      </c>
+      <c r="H43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>30</v>
+      </c>
+      <c r="H44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>50</v>
+      </c>
+      <c r="H45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>120</v>
+      </c>
+      <c r="H46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>20</v>
+      </c>
+      <c r="H48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>20</v>
+      </c>
+      <c r="H49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>40</v>
+      </c>
+      <c r="H50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>120</v>
+      </c>
+      <c r="H52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>30</v>
+      </c>
+      <c r="H53">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>180</v>
+      </c>
+      <c r="H54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>120</v>
+      </c>
+      <c r="H55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>45</v>
+      </c>
+      <c r="H56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>30</v>
+      </c>
+      <c r="H57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>40</v>
+      </c>
+      <c r="H58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>90</v>
+      </c>
+      <c r="H60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>45</v>
+      </c>
+      <c r="H61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>30</v>
+      </c>
+      <c r="H62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>30</v>
+      </c>
+      <c r="H63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>40</v>
+      </c>
+      <c r="H64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>30</v>
+      </c>
+      <c r="H65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>20</v>
+      </c>
+      <c r="H66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>45</v>
+      </c>
+      <c r="H67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>40</v>
+      </c>
+      <c r="H69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>50</v>
+      </c>
+      <c r="H70">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>40</v>
+      </c>
+      <c r="H72">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>30</v>
+      </c>
+      <c r="H73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>65</v>
+      </c>
+      <c r="H74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>60</v>
+      </c>
+      <c r="H75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>10</v>
+      </c>
+      <c r="H77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>120</v>
+      </c>
+      <c r="H78">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>60</v>
+      </c>
+      <c r="H79">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>35</v>
+      </c>
+      <c r="H80">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>10</v>
+      </c>
+      <c r="H82">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>30</v>
+      </c>
+      <c r="H84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>150</v>
+      </c>
+      <c r="H85">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>150</v>
+      </c>
+      <c r="H86">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>90</v>
+      </c>
+      <c r="H87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>45</v>
+      </c>
+      <c r="H88">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>120</v>
+      </c>
+      <c r="H89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>120</v>
+      </c>
+      <c r="H90">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>150</v>
+      </c>
+      <c r="H91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>60</v>
+      </c>
+      <c r="H92">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>20</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>30</v>
+      </c>
+      <c r="H94">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>60</v>
+      </c>
+      <c r="H95">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>40</v>
+      </c>
+      <c r="H96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>90</v>
+      </c>
+      <c r="H97">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>200</v>
+      </c>
+      <c r="H98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>90</v>
+      </c>
+      <c r="H99">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>50</v>
+      </c>
+      <c r="H102">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>2</v>
+      </c>
+      <c r="H103">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>45</v>
+      </c>
+      <c r="H107">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>30</v>
+      </c>
+      <c r="H108">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>80</v>
+      </c>
+      <c r="H109">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>120</v>
+      </c>
+      <c r="H110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>20</v>
+      </c>
+      <c r="H111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>60</v>
+      </c>
+      <c r="H112">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>20</v>
+      </c>
+      <c r="H113">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>150</v>
+      </c>
+      <c r="H115">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>50</v>
+      </c>
+      <c r="H116">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>120</v>
+      </c>
+      <c r="H117">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>20</v>
+      </c>
+      <c r="H118">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>80</v>
+      </c>
+      <c r="H120">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>30</v>
+      </c>
+      <c r="H121">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>50</v>
+      </c>
+      <c r="H122">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>10</v>
+      </c>
+      <c r="H124">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>30</v>
+      </c>
+      <c r="H126">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>60</v>
+      </c>
+      <c r="H127">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>60</v>
+      </c>
+      <c r="H129">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>30</v>
+      </c>
+      <c r="H130">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>90</v>
+      </c>
+      <c r="H131">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>120</v>
+      </c>
+      <c r="H135">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>240</v>
+      </c>
+      <c r="H136">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>60</v>
+      </c>
+      <c r="H137">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>30</v>
+      </c>
+      <c r="H138">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>65</v>
+      </c>
+      <c r="H139">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>60</v>
+      </c>
+      <c r="H140">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="H141">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>90</v>
+      </c>
+      <c r="H142">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>2</v>
+      </c>
+      <c r="H143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>150</v>
+      </c>
+      <c r="H144">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>28</v>
+      </c>
+      <c r="H145">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>120</v>
+      </c>
+      <c r="H147">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>7</v>
+      </c>
+      <c r="H148">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>60</v>
+      </c>
+      <c r="H149">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>55</v>
+      </c>
+      <c r="H151">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>25</v>
+      </c>
+      <c r="H152">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>60</v>
+      </c>
+      <c r="H154">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>60</v>
+      </c>
+      <c r="H156">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>60</v>
+      </c>
+      <c r="H157">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>45</v>
+      </c>
+      <c r="H158">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>120</v>
+      </c>
+      <c r="H159">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>15</v>
+      </c>
+      <c r="H160">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>120</v>
+      </c>
+      <c r="H161">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="H162">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>5</v>
+      </c>
+      <c r="H163">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>120</v>
+      </c>
+      <c r="H164">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>180</v>
+      </c>
+      <c r="H167">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>55</v>
+      </c>
+      <c r="H168">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>40</v>
+      </c>
+      <c r="H169">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>20</v>
+      </c>
+      <c r="H170">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>180</v>
+      </c>
+      <c r="H171">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>15</v>
+      </c>
+      <c r="H172">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>8</v>
+      </c>
+      <c r="H173">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>120</v>
+      </c>
+      <c r="H174">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>30</v>
+      </c>
+      <c r="H176">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>10</v>
+      </c>
+      <c r="H177">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>75</v>
+      </c>
+      <c r="H178">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>60</v>
+      </c>
+      <c r="H179">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>60</v>
+      </c>
+      <c r="H180">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>90</v>
+      </c>
+      <c r="H181">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>300</v>
+      </c>
+      <c r="H182">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>30</v>
+      </c>
+      <c r="H184">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>120</v>
+      </c>
+      <c r="H185">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>120</v>
+      </c>
+      <c r="H186">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>45</v>
+      </c>
+      <c r="H187">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>150</v>
+      </c>
+      <c r="H188">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>30</v>
+      </c>
+      <c r="H189">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>5</v>
+      </c>
+      <c r="H190">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>30</v>
+      </c>
+      <c r="H192">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>20</v>
+      </c>
+      <c r="H193">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>75</v>
+      </c>
+      <c r="H195">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>25</v>
+      </c>
+      <c r="H196">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>20</v>
+      </c>
+      <c r="H198">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>2</v>
+      </c>
+      <c r="H199">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>40</v>
+      </c>
+      <c r="H200">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>120</v>
+      </c>
+      <c r="H201">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>1</v>
+      </c>
+      <c r="H202">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>40</v>
+      </c>
+      <c r="H203">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>25</v>
+      </c>
+      <c r="H204">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>0</v>
+      </c>
+      <c r="H205">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>40</v>
+      </c>
+      <c r="H206">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>30</v>
+      </c>
+      <c r="H207">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>60</v>
+      </c>
+      <c r="H208">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>30</v>
+      </c>
+      <c r="H209">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>20</v>
+      </c>
+      <c r="H210">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>120</v>
+      </c>
+      <c r="H211">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>120</v>
+      </c>
+      <c r="H212">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>360</v>
+      </c>
+      <c r="H213">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>120</v>
+      </c>
+      <c r="H214">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>40</v>
+      </c>
+      <c r="H215">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>40</v>
+      </c>
+      <c r="H216">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>15</v>
+      </c>
+      <c r="H217">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>60</v>
+      </c>
+      <c r="H218">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>180</v>
+      </c>
+      <c r="H219">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>30</v>
+      </c>
+      <c r="H220">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>60</v>
+      </c>
+      <c r="H221">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>90</v>
+      </c>
+      <c r="H222">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>100</v>
+      </c>
+      <c r="H223">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>5</v>
+      </c>
+      <c r="H224">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>20</v>
+      </c>
+      <c r="H225">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>2</v>
+      </c>
+      <c r="H226">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>2</v>
+      </c>
+      <c r="H227">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>10</v>
+      </c>
+      <c r="H228">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>45</v>
+      </c>
+      <c r="H230">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>60</v>
+      </c>
+      <c r="H231">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>120</v>
+      </c>
+      <c r="H233">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>40</v>
+      </c>
+      <c r="H234">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>35</v>
+      </c>
+      <c r="H235">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>40</v>
+      </c>
+      <c r="H236">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>60</v>
+      </c>
+      <c r="H237">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>40</v>
+      </c>
+      <c r="H238">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>0</v>
+      </c>
+      <c r="H239">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>80</v>
+      </c>
+      <c r="H240">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>10</v>
+      </c>
+      <c r="H241">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>150</v>
+      </c>
+      <c r="H242">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>60</v>
+      </c>
+      <c r="H243">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>0</v>
+      </c>
+      <c r="H244">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>40</v>
+      </c>
+      <c r="H245">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>3</v>
+      </c>
+      <c r="H246">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>0</v>
+      </c>
+      <c r="H247">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>80</v>
+      </c>
+      <c r="H248">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>30</v>
+      </c>
+      <c r="H249">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>2</v>
+      </c>
+      <c r="H250">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>60</v>
+      </c>
+      <c r="H251">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>30</v>
+      </c>
+      <c r="H252">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>60</v>
+      </c>
+      <c r="H253">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>0</v>
+      </c>
+      <c r="H254">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>0</v>
+      </c>
+      <c r="H255">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>0</v>
+      </c>
+      <c r="H256">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>45</v>
+      </c>
+      <c r="H257">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>0</v>
+      </c>
+      <c r="H258">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>2</v>
+      </c>
+      <c r="H259">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>15</v>
+      </c>
+      <c r="H260">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>0</v>
+      </c>
+      <c r="H261">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>90</v>
+      </c>
+      <c r="H262">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>90</v>
+      </c>
+      <c r="H263">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>100</v>
+      </c>
+      <c r="H264">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>15</v>
+      </c>
+      <c r="H265">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>2</v>
+      </c>
+      <c r="H266">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>15</v>
+      </c>
+      <c r="H267">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>270</v>
+      </c>
+      <c r="H268">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>20</v>
+      </c>
+      <c r="H269">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>60</v>
+      </c>
+      <c r="H270">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>0</v>
+      </c>
+      <c r="H271">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>30</v>
+      </c>
+      <c r="H272">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>0</v>
+      </c>
+      <c r="H273">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>0</v>
+      </c>
+      <c r="H274">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>50</v>
+      </c>
+      <c r="H275">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>120</v>
+      </c>
+      <c r="H276">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>30</v>
+      </c>
+      <c r="H277">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>60</v>
+      </c>
+      <c r="H278">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>0</v>
+      </c>
+      <c r="H279">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>30</v>
+      </c>
+      <c r="H280">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>50</v>
+      </c>
+      <c r="H281">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>120</v>
+      </c>
+      <c r="H282">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>0</v>
+      </c>
+      <c r="H283">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>150</v>
+      </c>
+      <c r="H284">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>30</v>
+      </c>
+      <c r="H285">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>0</v>
+      </c>
+      <c r="H286">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>20</v>
+      </c>
+      <c r="H287">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>45</v>
+      </c>
+      <c r="H288">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>75</v>
+      </c>
+      <c r="H289">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>35</v>
+      </c>
+      <c r="H290">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>30</v>
+      </c>
+      <c r="H291">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>90</v>
+      </c>
+      <c r="H292">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>20</v>
+      </c>
+      <c r="H293">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>0</v>
+      </c>
+      <c r="H294">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>120</v>
+      </c>
+      <c r="H295">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>6</v>
+      </c>
+      <c r="H296">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>0</v>
+      </c>
+      <c r="H297">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>0</v>
+      </c>
+      <c r="H298">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>0</v>
+      </c>
+      <c r="H299">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>0</v>
+      </c>
+      <c r="H300">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>60</v>
+      </c>
+      <c r="H301">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>5</v>
+      </c>
+      <c r="H302">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>60</v>
+      </c>
+      <c r="H303">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>80</v>
+      </c>
+      <c r="H304">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>25</v>
+      </c>
+      <c r="H305">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>30</v>
+      </c>
+      <c r="H306">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>90</v>
+      </c>
+      <c r="H307">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>150</v>
+      </c>
+      <c r="H308">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>30</v>
+      </c>
+      <c r="H309">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>60</v>
+      </c>
+      <c r="H310">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>0</v>
+      </c>
+      <c r="H311">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>90</v>
+      </c>
+      <c r="H312">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>15</v>
+      </c>
+      <c r="H313">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>0</v>
+      </c>
+      <c r="H314">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>30</v>
+      </c>
+      <c r="H315">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>40</v>
+      </c>
+      <c r="H316">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>35</v>
+      </c>
+      <c r="H317">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>40</v>
+      </c>
+      <c r="H318">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>30</v>
+      </c>
+      <c r="H319">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>0</v>
+      </c>
+      <c r="H320">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>45</v>
+      </c>
+      <c r="H321">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>0</v>
+      </c>
+      <c r="H322">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>0</v>
+      </c>
+      <c r="H323">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>0</v>
+      </c>
+      <c r="H324">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>0</v>
+      </c>
+      <c r="H325">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>120</v>
+      </c>
+      <c r="H326">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>15</v>
+      </c>
+      <c r="H327">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>180</v>
+      </c>
+      <c r="H328">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>2</v>
+      </c>
+      <c r="H329">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>0</v>
+      </c>
+      <c r="H330">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>30</v>
+      </c>
+      <c r="H331">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>0</v>
+      </c>
+      <c r="H332">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>10</v>
+      </c>
+      <c r="H333">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>110</v>
+      </c>
+      <c r="H334">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>60</v>
+      </c>
+      <c r="H335">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>0</v>
+      </c>
+      <c r="H336">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>120</v>
+      </c>
+      <c r="H337">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>0</v>
+      </c>
+      <c r="H338">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>120</v>
+      </c>
+      <c r="H339">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>40</v>
+      </c>
+      <c r="H340">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>0</v>
+      </c>
+      <c r="H341">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>120</v>
+      </c>
+      <c r="H342">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>420</v>
+      </c>
+      <c r="H343">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>0</v>
+      </c>
+      <c r="H344">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>25</v>
+      </c>
+      <c r="H345">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>30</v>
+      </c>
+      <c r="H346">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>20</v>
+      </c>
+      <c r="H347">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>10</v>
+      </c>
+      <c r="H348">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>25</v>
+      </c>
+      <c r="H349">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>30</v>
+      </c>
+      <c r="H350">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>180</v>
+      </c>
+      <c r="H351">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>0</v>
+      </c>
+      <c r="H352">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>2</v>
+      </c>
+      <c r="H353">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>100</v>
+      </c>
+      <c r="H354">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>15</v>
+      </c>
+      <c r="H355">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>120</v>
+      </c>
+      <c r="H356">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>0</v>
+      </c>
+      <c r="H357">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>10</v>
+      </c>
+      <c r="H358">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>0</v>
+      </c>
+      <c r="H359">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>20</v>
+      </c>
+      <c r="H360">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>13</v>
+      </c>
+      <c r="H361">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>120</v>
+      </c>
+      <c r="H362">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>45</v>
+      </c>
+      <c r="H363">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>2</v>
+      </c>
+      <c r="H364">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>30</v>
+      </c>
+      <c r="H365">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>90</v>
+      </c>
+      <c r="H366">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>0</v>
+      </c>
+      <c r="H367">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>0</v>
+      </c>
+      <c r="H368">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>0</v>
+      </c>
+      <c r="H369">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>80</v>
+      </c>
+      <c r="H370">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>30</v>
+      </c>
+      <c r="H371">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>30</v>
+      </c>
+      <c r="H372">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>60</v>
+      </c>
+      <c r="H373">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>60</v>
+      </c>
+      <c r="H374">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>8</v>
+      </c>
+      <c r="H375">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>30</v>
+      </c>
+      <c r="H376">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>2</v>
+      </c>
+      <c r="H377">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>100</v>
+      </c>
+      <c r="H378">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>90</v>
+      </c>
+      <c r="H379">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>45</v>
+      </c>
+      <c r="H380">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>90</v>
+      </c>
+      <c r="H381">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>45</v>
+      </c>
+      <c r="H382">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>15</v>
+      </c>
+      <c r="H383">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>2</v>
+      </c>
+      <c r="H384">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>80</v>
+      </c>
+      <c r="H385">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>0</v>
+      </c>
+      <c r="H386">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>40</v>
+      </c>
+      <c r="H387">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>40</v>
+      </c>
+      <c r="H388">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>35</v>
+      </c>
+      <c r="H389">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>140</v>
+      </c>
+      <c r="H390">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>120</v>
+      </c>
+      <c r="H391">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>50</v>
+      </c>
+      <c r="H392">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>60</v>
+      </c>
+      <c r="H393">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>30</v>
+      </c>
+      <c r="H394">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>40</v>
+      </c>
+      <c r="H395">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>0</v>
+      </c>
+      <c r="H396">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>3</v>
+      </c>
+      <c r="H397">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>0</v>
+      </c>
+      <c r="H398">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>20</v>
+      </c>
+      <c r="H399">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>90</v>
+      </c>
+      <c r="H400">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>0</v>
+      </c>
+      <c r="H401">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <v>30</v>
+      </c>
+      <c r="H402">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A403">
+        <v>100</v>
+      </c>
+      <c r="H403">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A404">
+        <v>10</v>
+      </c>
+      <c r="H404">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A405">
+        <v>45</v>
+      </c>
+      <c r="H405">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A406">
+        <v>60</v>
+      </c>
+      <c r="H406">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A407">
+        <v>10</v>
+      </c>
+      <c r="H407">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A408">
+        <v>60</v>
+      </c>
+      <c r="H408">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>50</v>
+      </c>
+      <c r="H409">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A410">
+        <v>180</v>
+      </c>
+      <c r="H410">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A411">
+        <v>180</v>
+      </c>
+      <c r="H411">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A412">
+        <v>90</v>
+      </c>
+      <c r="H412">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A413">
+        <v>40</v>
+      </c>
+      <c r="H413">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A414">
+        <v>40</v>
+      </c>
+      <c r="H414">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A415">
+        <v>30</v>
+      </c>
+      <c r="H415">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>60</v>
+      </c>
+      <c r="H416">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A417">
+        <v>60</v>
+      </c>
+      <c r="H417">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>30</v>
+      </c>
+      <c r="H418">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A419">
+        <v>40</v>
+      </c>
+      <c r="H419">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A420">
+        <v>180</v>
+      </c>
+      <c r="H420">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A421">
+        <v>60</v>
+      </c>
+      <c r="H421">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A422">
+        <v>3</v>
+      </c>
+      <c r="H422">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A423">
+        <v>0</v>
+      </c>
+      <c r="H423">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A424">
+        <v>1</v>
+      </c>
+      <c r="H424">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A425">
+        <v>60</v>
+      </c>
+      <c r="H425">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A426">
+        <v>240</v>
+      </c>
+      <c r="H426">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A427">
+        <v>0</v>
+      </c>
+      <c r="H427">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A428">
+        <v>0</v>
+      </c>
+      <c r="H428">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A429">
+        <v>40</v>
+      </c>
+      <c r="H429">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A430">
+        <v>120</v>
+      </c>
+      <c r="H430">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A431">
+        <v>20</v>
+      </c>
+      <c r="H431">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A432">
+        <v>15</v>
+      </c>
+      <c r="H432">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A433">
+        <v>0</v>
+      </c>
+      <c r="H433">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A434">
+        <v>40</v>
+      </c>
+      <c r="H434">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A435">
+        <v>30</v>
+      </c>
+      <c r="H435">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A436">
+        <v>0</v>
+      </c>
+      <c r="H436">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A437">
+        <v>60</v>
+      </c>
+      <c r="H437">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A438">
+        <v>0</v>
+      </c>
+      <c r="H438">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A439">
+        <v>50</v>
+      </c>
+      <c r="H439">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A440">
+        <v>30</v>
+      </c>
+      <c r="H440">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A441">
+        <v>0</v>
+      </c>
+      <c r="H441">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A442">
+        <v>0</v>
+      </c>
+      <c r="H442">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A443">
+        <v>75</v>
+      </c>
+      <c r="H443">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A444">
+        <v>0</v>
+      </c>
+      <c r="H444">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A445">
+        <v>1</v>
+      </c>
+      <c r="H445">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A446">
+        <v>90</v>
+      </c>
+      <c r="H446">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A447">
+        <v>0</v>
+      </c>
+      <c r="H447">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A448">
+        <v>180</v>
+      </c>
+      <c r="H448">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A449">
+        <v>1</v>
+      </c>
+      <c r="H449">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A450">
+        <v>6</v>
+      </c>
+      <c r="H450">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A451">
+        <v>50</v>
+      </c>
+      <c r="H451">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A452">
+        <v>75</v>
+      </c>
+      <c r="H452">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A453">
+        <v>0</v>
+      </c>
+      <c r="H453">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A454">
+        <v>70</v>
+      </c>
+      <c r="H454">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A455">
+        <v>0</v>
+      </c>
+      <c r="H455">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A456">
+        <v>30</v>
+      </c>
+      <c r="H456">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A457">
+        <v>0</v>
+      </c>
+      <c r="H457">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A458">
+        <v>50</v>
+      </c>
+      <c r="H458">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A459">
+        <v>10</v>
+      </c>
+      <c r="H459">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A460">
+        <v>120</v>
+      </c>
+      <c r="H460">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A461">
+        <v>60</v>
+      </c>
+      <c r="H461">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A462">
+        <v>20</v>
+      </c>
+      <c r="H462">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A463">
+        <v>0</v>
+      </c>
+      <c r="H463">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A464">
+        <v>0</v>
+      </c>
+      <c r="H464">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A465">
+        <v>0</v>
+      </c>
+      <c r="H465">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A466">
+        <v>0</v>
+      </c>
+      <c r="H466">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A467">
+        <v>90</v>
+      </c>
+      <c r="H467">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A468">
+        <v>48</v>
+      </c>
+      <c r="H468">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A469">
+        <v>0</v>
+      </c>
+      <c r="H469">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A470">
+        <v>0</v>
+      </c>
+      <c r="H470">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A471">
+        <v>180</v>
+      </c>
+      <c r="H471">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A472">
+        <v>120</v>
+      </c>
+      <c r="H472">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A473">
+        <v>120</v>
+      </c>
+      <c r="H473">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A474">
+        <v>0</v>
+      </c>
+      <c r="H474">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A475">
+        <v>50</v>
+      </c>
+      <c r="H475">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A476">
+        <v>25</v>
+      </c>
+      <c r="H476">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A477">
+        <v>60</v>
+      </c>
+      <c r="H477">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A478">
+        <v>30</v>
+      </c>
+      <c r="H478">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A479">
+        <v>0</v>
+      </c>
+      <c r="H479">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A480">
+        <v>30</v>
+      </c>
+      <c r="H480">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A481">
+        <v>40</v>
+      </c>
+      <c r="H481">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A482">
+        <v>80</v>
+      </c>
+      <c r="H482">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A483">
+        <v>0</v>
+      </c>
+      <c r="H483">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A484">
+        <v>30</v>
+      </c>
+      <c r="H484">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A485">
+        <v>100</v>
+      </c>
+      <c r="H485">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A486">
+        <v>30</v>
+      </c>
+      <c r="H486">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A487">
+        <v>0</v>
+      </c>
+      <c r="H487">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A488">
+        <v>60</v>
+      </c>
+      <c r="H488">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A489">
+        <v>0</v>
+      </c>
+      <c r="H489">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A490">
+        <v>0</v>
+      </c>
+      <c r="H490">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A491">
+        <v>45</v>
+      </c>
+      <c r="H491">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A492">
+        <v>80</v>
+      </c>
+      <c r="H492">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A493">
+        <v>60</v>
+      </c>
+      <c r="H493">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A494">
+        <v>35</v>
+      </c>
+      <c r="H494">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A495">
+        <v>0</v>
+      </c>
+      <c r="H495">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A496">
+        <v>0</v>
+      </c>
+      <c r="H496">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A497">
+        <v>30</v>
+      </c>
+      <c r="H497">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A498">
+        <v>60</v>
+      </c>
+      <c r="H498">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A499">
+        <v>20</v>
+      </c>
+      <c r="H499">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A500">
+        <v>15</v>
+      </c>
+      <c r="H500">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A501">
+        <v>50</v>
+      </c>
+      <c r="H501">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A502">
+        <v>15</v>
+      </c>
+      <c r="H502">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A503">
+        <v>30</v>
+      </c>
+      <c r="H503">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A504">
+        <v>20</v>
+      </c>
+      <c r="H504">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A505">
+        <v>30</v>
+      </c>
+      <c r="H505">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A506">
+        <v>60</v>
+      </c>
+      <c r="H506">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A507">
+        <v>2</v>
+      </c>
+      <c r="H507">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A508">
+        <v>0</v>
+      </c>
+      <c r="H508">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A509">
+        <v>0</v>
+      </c>
+      <c r="H509">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A510">
+        <v>20</v>
+      </c>
+      <c r="H510">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A511">
+        <v>200</v>
+      </c>
+      <c r="H511">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A512">
+        <v>45</v>
+      </c>
+      <c r="H512">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A513">
+        <v>25</v>
+      </c>
+      <c r="H513">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A514">
+        <v>70</v>
+      </c>
+      <c r="H514">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A515">
+        <v>0</v>
+      </c>
+      <c r="H515">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A516">
+        <v>2</v>
+      </c>
+      <c r="H516">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A517">
+        <v>60</v>
+      </c>
+      <c r="H517">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A518">
+        <v>45</v>
+      </c>
+      <c r="H518">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A519">
+        <v>250</v>
+      </c>
+      <c r="H519">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A520">
+        <v>30</v>
+      </c>
+      <c r="H520">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A521">
+        <v>50</v>
+      </c>
+      <c r="H521">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A522">
+        <v>130</v>
+      </c>
+      <c r="H522">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A523">
+        <v>30</v>
+      </c>
+      <c r="H523">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A524">
+        <v>5</v>
+      </c>
+      <c r="H524">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A525">
+        <v>0</v>
+      </c>
+      <c r="H525">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A526">
+        <v>0</v>
+      </c>
+      <c r="H526">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A527">
+        <v>45</v>
+      </c>
+      <c r="H527">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A528">
+        <v>13</v>
+      </c>
+      <c r="H528">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A529">
+        <v>0</v>
+      </c>
+      <c r="H529">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A530">
+        <v>30</v>
+      </c>
+      <c r="H530">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A531">
+        <v>60</v>
+      </c>
+      <c r="H531">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A532">
+        <v>0</v>
+      </c>
+      <c r="H532">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A533">
+        <v>60</v>
+      </c>
+      <c r="H533">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A534">
+        <v>10</v>
+      </c>
+      <c r="H534">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A535">
+        <v>120</v>
+      </c>
+      <c r="H535">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A536">
+        <v>40</v>
+      </c>
+      <c r="H536">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A537">
+        <v>90</v>
+      </c>
+      <c r="H537">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A538">
+        <v>120</v>
+      </c>
+      <c r="H538">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A539">
+        <v>60</v>
+      </c>
+      <c r="H539">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A540">
+        <v>0</v>
+      </c>
+      <c r="H540">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A541">
+        <v>0</v>
+      </c>
+      <c r="H541">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A542">
+        <v>0</v>
+      </c>
+      <c r="H542">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A543">
+        <v>15</v>
+      </c>
+      <c r="H543">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A544">
+        <v>10</v>
+      </c>
+      <c r="H544">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A545">
+        <v>0</v>
+      </c>
+      <c r="H545">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A546">
+        <v>45</v>
+      </c>
+      <c r="H546">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A547">
+        <v>120</v>
+      </c>
+      <c r="H547">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A548">
+        <v>15</v>
+      </c>
+      <c r="H548">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A549">
+        <v>0</v>
+      </c>
+      <c r="H549">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A550">
+        <v>20</v>
+      </c>
+      <c r="H550">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A551">
+        <v>10</v>
+      </c>
+      <c r="H551">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A552">
+        <v>30</v>
+      </c>
+      <c r="H552">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A553">
+        <v>60</v>
+      </c>
+      <c r="H553">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A554">
+        <v>40</v>
+      </c>
+      <c r="H554">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A555">
+        <v>70</v>
+      </c>
+      <c r="H555">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A556">
+        <v>0</v>
+      </c>
+      <c r="H556">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A557">
+        <v>95</v>
+      </c>
+      <c r="H557">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A558">
+        <v>30</v>
+      </c>
+      <c r="H558">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A559">
+        <v>0</v>
+      </c>
+      <c r="H559">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A560">
+        <v>8</v>
+      </c>
+      <c r="H560">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A561">
+        <v>20</v>
+      </c>
+      <c r="H561">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A562">
+        <v>60</v>
+      </c>
+      <c r="H562">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A563">
+        <v>20</v>
+      </c>
+      <c r="H563">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A564">
+        <v>40</v>
+      </c>
+      <c r="H564">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A565">
+        <v>90</v>
+      </c>
+      <c r="H565">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A566">
+        <v>0</v>
+      </c>
+      <c r="H566">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A567">
+        <v>10</v>
+      </c>
+      <c r="H567">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A568">
+        <v>30</v>
+      </c>
+      <c r="H568">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A569">
+        <v>40</v>
+      </c>
+      <c r="H569">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A570">
+        <v>30</v>
+      </c>
+      <c r="H570">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A571">
+        <v>180</v>
+      </c>
+      <c r="H571">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A572">
+        <v>60</v>
+      </c>
+      <c r="H572">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A573">
+        <v>60</v>
+      </c>
+      <c r="H573">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A574">
+        <v>20</v>
+      </c>
+      <c r="H574">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A575">
+        <v>80</v>
+      </c>
+      <c r="H575">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A576">
+        <v>120</v>
+      </c>
+      <c r="H576">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A577">
+        <v>80</v>
+      </c>
+      <c r="H577">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A578">
+        <v>80</v>
+      </c>
+      <c r="H578">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A579">
+        <v>30</v>
+      </c>
+      <c r="H579">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A580">
+        <v>60</v>
+      </c>
+      <c r="H580">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A581">
+        <v>5</v>
+      </c>
+      <c r="H581">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A582">
+        <v>20</v>
+      </c>
+      <c r="H582">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A583">
+        <v>60</v>
+      </c>
+      <c r="H583">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A584">
+        <v>0</v>
+      </c>
+      <c r="H584">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A585">
+        <v>40</v>
+      </c>
+      <c r="H585">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A586">
+        <v>120</v>
+      </c>
+      <c r="H586">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A587">
+        <v>15</v>
+      </c>
+      <c r="H587">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A588">
+        <v>0</v>
+      </c>
+      <c r="H588">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A589">
+        <v>90</v>
+      </c>
+      <c r="H589">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A590">
+        <v>60</v>
+      </c>
+      <c r="H590">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A591">
+        <v>90</v>
+      </c>
+      <c r="H591">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A592">
+        <v>21</v>
+      </c>
+      <c r="H592">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A593">
+        <v>20</v>
+      </c>
+      <c r="H593">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A594">
+        <v>60</v>
+      </c>
+      <c r="H594">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A595">
+        <v>240</v>
+      </c>
+      <c r="H595">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A596">
+        <v>30</v>
+      </c>
+      <c r="H596">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A597">
+        <v>40</v>
+      </c>
+      <c r="H597">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A598">
+        <v>30</v>
+      </c>
+      <c r="H598">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A599">
+        <v>15</v>
+      </c>
+      <c r="H599">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A600">
+        <v>2</v>
+      </c>
+      <c r="H600">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A601">
+        <v>150</v>
+      </c>
+      <c r="H601">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A602">
+        <v>2</v>
+      </c>
+      <c r="H602">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A603">
+        <v>40</v>
+      </c>
+      <c r="H603">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A604">
+        <v>90</v>
+      </c>
+      <c r="H604">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A605">
+        <v>20</v>
+      </c>
+      <c r="H605">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A606">
+        <v>0</v>
+      </c>
+      <c r="H606">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A607">
+        <v>0</v>
+      </c>
+      <c r="H607">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A608">
+        <v>60</v>
+      </c>
+      <c r="H608">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A609">
+        <v>60</v>
+      </c>
+      <c r="H609">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A610">
+        <v>60</v>
+      </c>
+      <c r="H610">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A611">
+        <v>5</v>
+      </c>
+      <c r="H611">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A612">
+        <v>30</v>
+      </c>
+      <c r="H612">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A613">
+        <v>120</v>
+      </c>
+      <c r="H613">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A614">
+        <v>50</v>
+      </c>
+      <c r="H614">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A615">
+        <v>0</v>
+      </c>
+      <c r="H615">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A616">
+        <v>120</v>
+      </c>
+      <c r="H616">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A617">
+        <v>60</v>
+      </c>
+      <c r="H617">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A618">
+        <v>60</v>
+      </c>
+      <c r="H618">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A619">
+        <v>120</v>
+      </c>
+      <c r="H619">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A620">
+        <v>90</v>
+      </c>
+      <c r="H620">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A621">
+        <v>30</v>
+      </c>
+      <c r="H621">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A622">
+        <v>60</v>
+      </c>
+      <c r="H622">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A623">
+        <v>60</v>
+      </c>
+      <c r="H623">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A624">
+        <v>120</v>
+      </c>
+      <c r="H624">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A625">
+        <v>80</v>
+      </c>
+      <c r="H625">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A626">
+        <v>0</v>
+      </c>
+      <c r="H626">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A627">
+        <v>50</v>
+      </c>
+      <c r="H627">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A628">
+        <v>60</v>
+      </c>
+      <c r="H628">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A629">
+        <v>30</v>
+      </c>
+      <c r="H629">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A630">
+        <v>50</v>
+      </c>
+      <c r="H630">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A631">
+        <v>20</v>
+      </c>
+      <c r="H631">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A632">
+        <v>45</v>
+      </c>
+      <c r="H632">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A633">
+        <v>5</v>
+      </c>
+      <c r="H633">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A634">
+        <v>90</v>
+      </c>
+      <c r="H634">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="635" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A635">
+        <v>60</v>
+      </c>
+      <c r="H635">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A636">
+        <v>10</v>
+      </c>
+      <c r="H636">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A637">
+        <v>40</v>
+      </c>
+      <c r="H637">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A638">
+        <v>45</v>
+      </c>
+      <c r="H638">
+        <v>9141984</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A639">
+        <v>30</v>
+      </c>
+      <c r="H639">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A640">
+        <v>45</v>
+      </c>
+      <c r="H640">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A641">
+        <v>360</v>
+      </c>
+      <c r="H641">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="642" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A642">
+        <v>0</v>
+      </c>
+      <c r="H642">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A643">
+        <v>20</v>
+      </c>
+      <c r="H643">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A644">
+        <v>120</v>
+      </c>
+      <c r="H644">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A645">
+        <v>0</v>
+      </c>
+      <c r="H645">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A646">
+        <v>120</v>
+      </c>
+      <c r="H646">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A647">
+        <v>110</v>
+      </c>
+      <c r="H647">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A648">
+        <v>60</v>
+      </c>
+      <c r="H648">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A649">
+        <v>60</v>
+      </c>
+      <c r="H649">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="650" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A650">
+        <v>40</v>
+      </c>
+      <c r="H650">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="651" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A651">
+        <v>120</v>
+      </c>
+      <c r="H651">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="652" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A652">
+        <v>30</v>
+      </c>
+      <c r="H652">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="653" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A653">
+        <v>90</v>
+      </c>
+      <c r="H653">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="654" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A654">
+        <v>15</v>
+      </c>
+      <c r="H654">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="655" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A655">
+        <v>0</v>
+      </c>
+      <c r="H655">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="656" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A656">
+        <v>5</v>
+      </c>
+      <c r="H656">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A657">
+        <v>60</v>
+      </c>
+      <c r="H657">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="658" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A658">
+        <v>3</v>
+      </c>
+      <c r="H658">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="659" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A659">
+        <v>180</v>
+      </c>
+      <c r="H659">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="660" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A660">
+        <v>0</v>
+      </c>
+      <c r="H660">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="661" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A661">
+        <v>70</v>
+      </c>
+      <c r="H661">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="662" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A662">
+        <v>60</v>
+      </c>
+      <c r="H662">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="663" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A663">
+        <v>0</v>
+      </c>
+      <c r="H663">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="664" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A664">
+        <v>10</v>
+      </c>
+      <c r="H664">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="665" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A665">
+        <v>45</v>
+      </c>
+      <c r="H665">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="666" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A666">
+        <v>30</v>
+      </c>
+      <c r="H666">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="667" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A667">
+        <v>30</v>
+      </c>
+      <c r="H667">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="668" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A668">
+        <v>120</v>
+      </c>
+      <c r="H668">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="669" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A669">
+        <v>100</v>
+      </c>
+      <c r="H669">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="670" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A670">
+        <v>600</v>
+      </c>
+      <c r="H670">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="671" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A671">
+        <v>2</v>
+      </c>
+      <c r="H671">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="672" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A672">
+        <v>40</v>
+      </c>
+      <c r="H672">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="673" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A673">
+        <v>150</v>
+      </c>
+      <c r="H673">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="674" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A674">
+        <v>100</v>
+      </c>
+      <c r="H674">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="675" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A675">
+        <v>140</v>
+      </c>
+      <c r="H675">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="676" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A676">
+        <v>45</v>
+      </c>
+      <c r="H676">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="677" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A677">
+        <v>120</v>
+      </c>
+      <c r="H677">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="678" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A678">
+        <v>120</v>
+      </c>
+      <c r="H678">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="679" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A679">
+        <v>2</v>
+      </c>
+      <c r="H679">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="680" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A680">
+        <v>60</v>
+      </c>
+      <c r="H680">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="681" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A681">
+        <v>60</v>
+      </c>
+      <c r="H681">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="682" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A682">
+        <v>30</v>
+      </c>
+      <c r="H682">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="683" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A683">
+        <v>10</v>
+      </c>
+      <c r="H683">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="684" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A684">
+        <v>20</v>
+      </c>
+      <c r="H684">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="685" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A685">
+        <v>120</v>
+      </c>
+      <c r="H685">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="686" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A686">
+        <v>120</v>
+      </c>
+      <c r="H686">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="687" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A687">
+        <v>20</v>
+      </c>
+      <c r="H687">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="688" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A688">
+        <v>70</v>
+      </c>
+      <c r="H688">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="689" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A689">
+        <v>40</v>
+      </c>
+      <c r="H689">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="690" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A690">
+        <v>15</v>
+      </c>
+      <c r="H690">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="691" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A691">
+        <v>8</v>
+      </c>
+      <c r="H691">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="692" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A692">
+        <v>10</v>
+      </c>
+      <c r="H692">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="693" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A693">
+        <v>180</v>
+      </c>
+      <c r="H693">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="694" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A694">
+        <v>0</v>
+      </c>
+      <c r="H694">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="695" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A695">
+        <v>50</v>
+      </c>
+      <c r="H695">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="696" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A696">
+        <v>60</v>
+      </c>
+      <c r="H696">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="697" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A697">
+        <v>45</v>
+      </c>
+      <c r="H697">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="698" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A698">
+        <v>60</v>
+      </c>
+      <c r="H698">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="699" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A699">
+        <v>90</v>
+      </c>
+      <c r="H699">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="700" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A700">
+        <v>150</v>
+      </c>
+      <c r="H700">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="701" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A701">
+        <v>40</v>
+      </c>
+      <c r="H701">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="702" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A702">
+        <v>180</v>
+      </c>
+      <c r="H702">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="703" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A703">
+        <v>30</v>
+      </c>
+      <c r="H703">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="704" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A704">
+        <v>30</v>
+      </c>
+      <c r="H704">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="705" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A705">
+        <v>50</v>
+      </c>
+      <c r="H705">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="706" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A706">
+        <v>60</v>
+      </c>
+      <c r="H706">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="707" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A707">
+        <v>90</v>
+      </c>
+      <c r="H707">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="708" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A708">
+        <v>120</v>
+      </c>
+      <c r="H708">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="709" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A709">
+        <v>0</v>
+      </c>
+      <c r="H709">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="710" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A710">
+        <v>2</v>
+      </c>
+      <c r="H710">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="711" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A711">
+        <v>30</v>
+      </c>
+      <c r="H711">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="712" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A712">
+        <v>0</v>
+      </c>
+      <c r="H712">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="713" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A713">
+        <v>75</v>
+      </c>
+      <c r="H713">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="714" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A714">
+        <v>0</v>
+      </c>
+      <c r="H714">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="715" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A715">
+        <v>30</v>
+      </c>
+      <c r="H715">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="716" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A716">
+        <v>80</v>
+      </c>
+      <c r="H716">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="717" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A717">
+        <v>15</v>
+      </c>
+      <c r="H717">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="718" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A718">
+        <v>40</v>
+      </c>
+      <c r="H718">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="719" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A719">
+        <v>60</v>
+      </c>
+      <c r="H719">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="720" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A720">
+        <v>30</v>
+      </c>
+      <c r="H720">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="721" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A721">
+        <v>135</v>
+      </c>
+      <c r="H721">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="722" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A722">
+        <v>0</v>
+      </c>
+      <c r="H722">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="723" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A723">
+        <v>90</v>
+      </c>
+      <c r="H723">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="724" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A724">
+        <v>120</v>
+      </c>
+      <c r="H724">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="725" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A725">
+        <v>40</v>
+      </c>
+      <c r="H725">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="726" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A726">
+        <v>10</v>
+      </c>
+      <c r="H726">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="727" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A727">
+        <v>70</v>
+      </c>
+      <c r="H727">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="728" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A728">
+        <v>30</v>
+      </c>
+      <c r="H728">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="729" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A729">
+        <v>30</v>
+      </c>
+      <c r="H729">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="730" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A730">
+        <v>60</v>
+      </c>
+      <c r="H730">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="731" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A731">
+        <v>90</v>
+      </c>
+      <c r="H731">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="732" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A732">
+        <v>50</v>
+      </c>
+      <c r="H732">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="733" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A733">
+        <v>240</v>
+      </c>
+      <c r="H733">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="734" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A734">
+        <v>60</v>
+      </c>
+      <c r="H734">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="735" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A735">
+        <v>20</v>
+      </c>
+      <c r="H735">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="736" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A736">
+        <v>40</v>
+      </c>
+      <c r="H736">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="737" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A737">
+        <v>0</v>
+      </c>
+      <c r="H737">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="738" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A738">
+        <v>30</v>
+      </c>
+      <c r="H738">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="739" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A739">
+        <v>45</v>
+      </c>
+      <c r="H739">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="740" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A740">
+        <v>300</v>
+      </c>
+      <c r="H740">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="741" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A741">
+        <v>15</v>
+      </c>
+      <c r="H741">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="742" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A742">
+        <v>220</v>
+      </c>
+      <c r="H742">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="743" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A743">
+        <v>20</v>
+      </c>
+      <c r="H743">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="744" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A744">
+        <v>80</v>
+      </c>
+      <c r="H744">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="745" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A745">
+        <v>30</v>
+      </c>
+      <c r="H745">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="746" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A746">
+        <v>45</v>
+      </c>
+      <c r="H746">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="747" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A747">
+        <v>40</v>
+      </c>
+      <c r="H747">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="748" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A748">
+        <v>10</v>
+      </c>
+      <c r="H748">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="749" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A749">
+        <v>30</v>
+      </c>
+      <c r="H749">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="750" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A750">
+        <v>40</v>
+      </c>
+      <c r="H750">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="751" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A751">
+        <v>60</v>
+      </c>
+      <c r="H751">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="752" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A752">
+        <v>45</v>
+      </c>
+      <c r="H752">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="753" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A753">
+        <v>100</v>
+      </c>
+      <c r="H753">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="754" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A754">
+        <v>25</v>
+      </c>
+      <c r="H754">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Project 2/Project/surveydata3.xlsx
+++ b/Project 2/Project/surveydata3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamas\Documents\GitHub\Udactity_Data_foundations_nanodegree\Project 2\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B388FD4-B47E-4EF4-842A-24B96C287CA2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0F05D1-8744-45D0-8CAA-233BCECA91BE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6690" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12212" uniqueCount="3408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12742" uniqueCount="3408">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -11305,8 +11305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC754"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AI1" sqref="AF1:AI1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -81211,15 +81211,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634B806C-0FC6-4B7A-A55D-966D8B339180}">
-  <dimension ref="A1:S754"/>
+  <dimension ref="A1:AC754"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="21" max="21" width="18.5703125" customWidth="1"/>
+    <col min="22" max="22" width="27.28515625" customWidth="1"/>
+    <col min="23" max="23" width="27.5703125" customWidth="1"/>
+    <col min="25" max="25" width="9.140625" customWidth="1"/>
+    <col min="27" max="27" width="27.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -81229,13 +81236,39 @@
       <c r="O1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="O2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB2">
+        <f>COUNTIF(U1:U754,AA2)</f>
+        <v>20</v>
+      </c>
+      <c r="AC2">
+        <f>AB2/754</f>
+        <v>2.6525198938992044E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="O3" t="s">
         <v>69</v>
       </c>
@@ -81246,8 +81279,25 @@
         <f>COUNTIF(O2:O754,R3)</f>
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W3" t="s">
+        <v>32</v>
+      </c>
+      <c r="X3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB3">
+        <f>COUNTIF(V2:V754,AA3)</f>
+        <v>157</v>
+      </c>
+      <c r="AC3">
+        <f>AB3/754</f>
+        <v>0.20822281167108753</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>45</v>
       </c>
@@ -81272,8 +81322,22 @@
         <f t="shared" ref="S4:S7" si="0">COUNTIF(O3:O755,R4)</f>
         <v>69</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB4">
+        <f>COUNTIF(W1:W754,AA4)</f>
+        <v>236</v>
+      </c>
+      <c r="AC4">
+        <f>AB4/754</f>
+        <v>0.3129973474801061</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>30</v>
       </c>
@@ -81290,8 +81354,25 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V5" t="s">
+        <v>31</v>
+      </c>
+      <c r="W5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB5">
+        <f>COUNTIF(X1:X754,AA5)</f>
+        <v>112</v>
+      </c>
+      <c r="AC5">
+        <f>AB5/754</f>
+        <v>0.14854111405835543</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>65</v>
       </c>
@@ -81308,8 +81389,19 @@
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB6">
+        <f>SUM(AB2:AB5)</f>
+        <v>525</v>
+      </c>
+      <c r="AC6">
+        <f>AB6/754</f>
+        <v>0.69628647214854111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>240</v>
       </c>
@@ -81326,8 +81418,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -81337,8 +81432,11 @@
       <c r="O8" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="X8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>35</v>
       </c>
@@ -81348,8 +81446,11 @@
       <c r="O9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -81359,8 +81460,11 @@
       <c r="O10" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -81371,7 +81475,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -81381,8 +81485,11 @@
       <c r="O12" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="X12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>40</v>
       </c>
@@ -81393,7 +81500,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>30</v>
       </c>
@@ -81403,8 +81510,11 @@
       <c r="O14" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>120</v>
       </c>
@@ -81415,7 +81525,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>30</v>
       </c>
@@ -81426,7 +81536,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>50</v>
       </c>
@@ -81436,8 +81546,14 @@
       <c r="O17" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V17" t="s">
+        <v>31</v>
+      </c>
+      <c r="W17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>120</v>
       </c>
@@ -81447,8 +81563,11 @@
       <c r="O18" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -81458,8 +81577,11 @@
       <c r="O19" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -81470,7 +81592,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>40</v>
       </c>
@@ -81480,8 +81602,11 @@
       <c r="O21" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>30</v>
       </c>
@@ -81491,8 +81616,11 @@
       <c r="O22" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -81502,8 +81630,11 @@
       <c r="O23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>180</v>
       </c>
@@ -81513,8 +81644,11 @@
       <c r="O24" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>60</v>
       </c>
@@ -81525,7 +81659,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>30</v>
       </c>
@@ -81536,7 +81670,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>45</v>
       </c>
@@ -81546,8 +81680,11 @@
       <c r="O27" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>30</v>
       </c>
@@ -81558,7 +81695,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>30</v>
       </c>
@@ -81568,8 +81705,11 @@
       <c r="O29" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>40</v>
       </c>
@@ -81580,7 +81720,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -81591,7 +81731,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>150</v>
       </c>
@@ -81602,7 +81742,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0</v>
       </c>
@@ -81612,8 +81752,14 @@
       <c r="O33" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W33" t="s">
+        <v>32</v>
+      </c>
+      <c r="X33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>100</v>
       </c>
@@ -81623,8 +81769,11 @@
       <c r="O34" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>120</v>
       </c>
@@ -81634,8 +81783,11 @@
       <c r="O35" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>70</v>
       </c>
@@ -81645,8 +81797,14 @@
       <c r="O36" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V36" t="s">
+        <v>31</v>
+      </c>
+      <c r="W36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>90</v>
       </c>
@@ -81656,8 +81814,11 @@
       <c r="O37" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>50</v>
       </c>
@@ -81667,8 +81828,11 @@
       <c r="O38" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>60</v>
       </c>
@@ -81678,8 +81842,11 @@
       <c r="O39" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>50</v>
       </c>
@@ -81689,8 +81856,11 @@
       <c r="O40" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>60</v>
       </c>
@@ -81700,8 +81870,11 @@
       <c r="O41" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>150</v>
       </c>
@@ -81712,7 +81885,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>50</v>
       </c>
@@ -81722,8 +81895,14 @@
       <c r="O43" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V43" t="s">
+        <v>31</v>
+      </c>
+      <c r="W43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>30</v>
       </c>
@@ -81733,8 +81912,14 @@
       <c r="O44" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W44" t="s">
+        <v>32</v>
+      </c>
+      <c r="X44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>50</v>
       </c>
@@ -81744,8 +81929,11 @@
       <c r="O45" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>120</v>
       </c>
@@ -81755,8 +81943,11 @@
       <c r="O46" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0</v>
       </c>
@@ -81766,8 +81957,11 @@
       <c r="O47" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>20</v>
       </c>
@@ -81777,8 +81971,11 @@
       <c r="O48" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>20</v>
       </c>
@@ -81789,7 +81986,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>40</v>
       </c>
@@ -81799,8 +81996,11 @@
       <c r="O50" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0</v>
       </c>
@@ -81811,7 +82011,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>120</v>
       </c>
@@ -81822,7 +82022,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>30</v>
       </c>
@@ -81832,8 +82032,11 @@
       <c r="O53" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>180</v>
       </c>
@@ -81844,7 +82047,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>120</v>
       </c>
@@ -81854,8 +82057,14 @@
       <c r="O55" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W55" t="s">
+        <v>32</v>
+      </c>
+      <c r="X55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>45</v>
       </c>
@@ -81866,7 +82075,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>30</v>
       </c>
@@ -81876,8 +82085,11 @@
       <c r="O57" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>40</v>
       </c>
@@ -81888,7 +82100,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0</v>
       </c>
@@ -81899,7 +82111,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>90</v>
       </c>
@@ -81910,7 +82122,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>45</v>
       </c>
@@ -81920,8 +82132,11 @@
       <c r="O61" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W61" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>30</v>
       </c>
@@ -81931,8 +82146,11 @@
       <c r="O62" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W62" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>30</v>
       </c>
@@ -81942,8 +82160,11 @@
       <c r="O63" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V63" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>40</v>
       </c>
@@ -81954,7 +82175,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>30</v>
       </c>
@@ -81965,7 +82186,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>20</v>
       </c>
@@ -81975,8 +82196,11 @@
       <c r="O66" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W66" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>45</v>
       </c>
@@ -81987,7 +82211,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0</v>
       </c>
@@ -81997,8 +82221,11 @@
       <c r="O68" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V68" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>40</v>
       </c>
@@ -82008,8 +82235,11 @@
       <c r="O69" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W69" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>50</v>
       </c>
@@ -82020,7 +82250,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0</v>
       </c>
@@ -82030,8 +82260,11 @@
       <c r="O71" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W71" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>40</v>
       </c>
@@ -82042,7 +82275,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>30</v>
       </c>
@@ -82053,7 +82286,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>65</v>
       </c>
@@ -82063,8 +82296,11 @@
       <c r="O74" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>60</v>
       </c>
@@ -82074,8 +82310,11 @@
       <c r="O75" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X75" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>0</v>
       </c>
@@ -82085,8 +82324,11 @@
       <c r="O76" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W76" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>10</v>
       </c>
@@ -82096,8 +82338,11 @@
       <c r="O77" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U77" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>120</v>
       </c>
@@ -82107,8 +82352,14 @@
       <c r="O78" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W78" t="s">
+        <v>32</v>
+      </c>
+      <c r="X78" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>60</v>
       </c>
@@ -82118,8 +82369,11 @@
       <c r="O79" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W79" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>35</v>
       </c>
@@ -82129,8 +82383,11 @@
       <c r="O80" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V80" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>0</v>
       </c>
@@ -82140,8 +82397,14 @@
       <c r="O81" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V81" t="s">
+        <v>31</v>
+      </c>
+      <c r="W81" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>10</v>
       </c>
@@ -82151,8 +82414,11 @@
       <c r="O82" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W82" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>0</v>
       </c>
@@ -82162,8 +82428,11 @@
       <c r="O83" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U83" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>30</v>
       </c>
@@ -82173,8 +82442,11 @@
       <c r="O84" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X84" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>150</v>
       </c>
@@ -82184,8 +82456,11 @@
       <c r="O85" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X85" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>150</v>
       </c>
@@ -82195,8 +82470,11 @@
       <c r="O86" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X86" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>90</v>
       </c>
@@ -82207,7 +82485,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>45</v>
       </c>
@@ -82218,7 +82496,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>120</v>
       </c>
@@ -82229,7 +82507,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>120</v>
       </c>
@@ -82239,8 +82517,11 @@
       <c r="O90" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V90" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>150</v>
       </c>
@@ -82251,7 +82532,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>60</v>
       </c>
@@ -82261,8 +82542,11 @@
       <c r="O92" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W92" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>20</v>
       </c>
@@ -82272,8 +82556,11 @@
       <c r="O93" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U93" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>30</v>
       </c>
@@ -82283,8 +82570,11 @@
       <c r="O94" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W94" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>60</v>
       </c>
@@ -82295,7 +82585,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>40</v>
       </c>
@@ -82305,8 +82595,11 @@
       <c r="O96" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W96" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>90</v>
       </c>
@@ -82316,8 +82609,14 @@
       <c r="O97" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W97" t="s">
+        <v>32</v>
+      </c>
+      <c r="X97" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>200</v>
       </c>
@@ -82327,8 +82626,11 @@
       <c r="O98" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W98" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>90</v>
       </c>
@@ -82338,8 +82640,11 @@
       <c r="O99" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X99" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>0</v>
       </c>
@@ -82349,8 +82654,14 @@
       <c r="O100" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V100" t="s">
+        <v>31</v>
+      </c>
+      <c r="X100" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>0</v>
       </c>
@@ -82361,7 +82672,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>50</v>
       </c>
@@ -82371,8 +82682,11 @@
       <c r="O102" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X102" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2</v>
       </c>
@@ -82382,8 +82696,11 @@
       <c r="O103" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X103" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>0</v>
       </c>
@@ -82393,8 +82710,11 @@
       <c r="O104" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V104" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>0</v>
       </c>
@@ -82404,8 +82724,11 @@
       <c r="O105" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W105" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>0</v>
       </c>
@@ -82415,8 +82738,11 @@
       <c r="O106" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W106" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>45</v>
       </c>
@@ -82426,8 +82752,11 @@
       <c r="O107" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W107" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>30</v>
       </c>
@@ -82438,7 +82767,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>80</v>
       </c>
@@ -82448,8 +82777,11 @@
       <c r="O109" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W109" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>120</v>
       </c>
@@ -82459,8 +82791,11 @@
       <c r="O110" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W110" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>20</v>
       </c>
@@ -82471,7 +82806,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>60</v>
       </c>
@@ -82481,8 +82816,11 @@
       <c r="O112" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W112" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>20</v>
       </c>
@@ -82492,8 +82830,11 @@
       <c r="O113" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W113" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1</v>
       </c>
@@ -82503,8 +82844,11 @@
       <c r="O114" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U114" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>150</v>
       </c>
@@ -82515,7 +82859,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>50</v>
       </c>
@@ -82525,8 +82869,11 @@
       <c r="O116" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W116" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>120</v>
       </c>
@@ -82537,7 +82884,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>20</v>
       </c>
@@ -82548,7 +82895,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>0</v>
       </c>
@@ -82559,7 +82906,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>80</v>
       </c>
@@ -82569,8 +82916,11 @@
       <c r="O120" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W120" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>30</v>
       </c>
@@ -82581,7 +82931,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>50</v>
       </c>
@@ -82591,8 +82941,11 @@
       <c r="O122" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V122" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>0</v>
       </c>
@@ -82602,8 +82955,11 @@
       <c r="O123" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W123" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>10</v>
       </c>
@@ -82613,8 +82969,11 @@
       <c r="O124" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W124" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>0</v>
       </c>
@@ -82624,8 +82983,14 @@
       <c r="O125" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V125" t="s">
+        <v>31</v>
+      </c>
+      <c r="X125" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>30</v>
       </c>
@@ -82635,8 +83000,11 @@
       <c r="O126" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U126" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>60</v>
       </c>
@@ -82647,7 +83015,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>0</v>
       </c>
@@ -82657,8 +83025,11 @@
       <c r="O128" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W128" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>60</v>
       </c>
@@ -82668,8 +83039,11 @@
       <c r="O129" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W129" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>30</v>
       </c>
@@ -82679,8 +83053,11 @@
       <c r="O130" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W130" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>90</v>
       </c>
@@ -82690,8 +83067,11 @@
       <c r="O131" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W131" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>0</v>
       </c>
@@ -82701,8 +83081,11 @@
       <c r="O132" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V132" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>0</v>
       </c>
@@ -82712,8 +83095,11 @@
       <c r="O133" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X133" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>0</v>
       </c>
@@ -82724,7 +83110,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>120</v>
       </c>
@@ -82735,7 +83121,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>240</v>
       </c>
@@ -82745,8 +83131,11 @@
       <c r="O136" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W136" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>60</v>
       </c>
@@ -82757,7 +83146,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>30</v>
       </c>
@@ -82767,8 +83156,11 @@
       <c r="O138" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V138" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>65</v>
       </c>
@@ -82778,8 +83170,11 @@
       <c r="O139" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W139" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>60</v>
       </c>
@@ -82789,8 +83184,11 @@
       <c r="O140" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W140" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -82800,8 +83198,11 @@
       <c r="O141" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W141" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>90</v>
       </c>
@@ -82811,8 +83212,11 @@
       <c r="O142" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V142" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2</v>
       </c>
@@ -82822,8 +83226,11 @@
       <c r="O143" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U143" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>150</v>
       </c>
@@ -82833,8 +83240,11 @@
       <c r="O144" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U144" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>28</v>
       </c>
@@ -82844,8 +83254,11 @@
       <c r="O145" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V145" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>0</v>
       </c>
@@ -82855,8 +83268,11 @@
       <c r="O146" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W146" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>120</v>
       </c>
@@ -82867,7 +83283,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>7</v>
       </c>
@@ -82877,8 +83293,11 @@
       <c r="O148" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V148" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>60</v>
       </c>
@@ -82888,8 +83307,11 @@
       <c r="O149" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V149" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>0</v>
       </c>
@@ -82899,8 +83321,11 @@
       <c r="O150" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X150" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>55</v>
       </c>
@@ -82910,8 +83335,14 @@
       <c r="O151" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W151" t="s">
+        <v>32</v>
+      </c>
+      <c r="X151" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>25</v>
       </c>
@@ -82921,8 +83352,11 @@
       <c r="O152" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V152" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>0</v>
       </c>
@@ -82932,8 +83366,11 @@
       <c r="O153" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W153" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>60</v>
       </c>
@@ -82944,7 +83381,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>0</v>
       </c>
@@ -82954,8 +83391,11 @@
       <c r="O155" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X155" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>60</v>
       </c>
@@ -82965,8 +83405,11 @@
       <c r="O156" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V156" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>60</v>
       </c>
@@ -82976,8 +83419,11 @@
       <c r="O157" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V157" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>45</v>
       </c>
@@ -82988,7 +83434,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>120</v>
       </c>
@@ -82998,8 +83444,11 @@
       <c r="O159" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W159" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>15</v>
       </c>
@@ -83009,8 +83458,11 @@
       <c r="O160" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X160" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>120</v>
       </c>
@@ -83020,8 +83472,11 @@
       <c r="O161" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V161" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
@@ -83031,8 +83486,11 @@
       <c r="O162" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X162" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>5</v>
       </c>
@@ -83043,7 +83501,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>120</v>
       </c>
@@ -83053,8 +83511,11 @@
       <c r="O164" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V164" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>0</v>
       </c>
@@ -83064,8 +83525,11 @@
       <c r="O165" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V165" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>0</v>
       </c>
@@ -83075,8 +83539,11 @@
       <c r="O166" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W166" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>180</v>
       </c>
@@ -83086,8 +83553,11 @@
       <c r="O167" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V167" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>55</v>
       </c>
@@ -83097,8 +83567,11 @@
       <c r="O168" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V168" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>40</v>
       </c>
@@ -83108,8 +83581,11 @@
       <c r="O169" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V169" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>20</v>
       </c>
@@ -83119,8 +83595,14 @@
       <c r="O170" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W170" t="s">
+        <v>32</v>
+      </c>
+      <c r="X170" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>180</v>
       </c>
@@ -83130,8 +83612,11 @@
       <c r="O171" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V171" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>15</v>
       </c>
@@ -83142,7 +83627,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>8</v>
       </c>
@@ -83153,7 +83638,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>120</v>
       </c>
@@ -83163,8 +83648,11 @@
       <c r="O174" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X174" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>0</v>
       </c>
@@ -83175,7 +83663,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>30</v>
       </c>
@@ -83186,7 +83674,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>10</v>
       </c>
@@ -83196,8 +83684,11 @@
       <c r="O177" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X177" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>75</v>
       </c>
@@ -83207,8 +83698,11 @@
       <c r="O178" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V178" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>60</v>
       </c>
@@ -83218,8 +83712,11 @@
       <c r="O179" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W179" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="180" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>60</v>
       </c>
@@ -83230,7 +83727,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>90</v>
       </c>
@@ -83240,8 +83737,11 @@
       <c r="O181" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W181" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="182" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>300</v>
       </c>
@@ -83251,8 +83751,11 @@
       <c r="O182" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W182" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>0</v>
       </c>
@@ -83262,8 +83765,11 @@
       <c r="O183" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W183" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="184" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>30</v>
       </c>
@@ -83273,8 +83779,11 @@
       <c r="O184" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W184" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="185" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>120</v>
       </c>
@@ -83285,7 +83794,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>120</v>
       </c>
@@ -83296,7 +83805,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>45</v>
       </c>
@@ -83307,7 +83816,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>150</v>
       </c>
@@ -83317,8 +83826,11 @@
       <c r="O188" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W188" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="189" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>30</v>
       </c>
@@ -83328,8 +83840,11 @@
       <c r="O189" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W189" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="190" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>5</v>
       </c>
@@ -83339,8 +83854,11 @@
       <c r="O190" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X190" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="191" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>0</v>
       </c>
@@ -83351,7 +83869,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>30</v>
       </c>
@@ -83361,8 +83879,11 @@
       <c r="O192" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W192" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="193" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>20</v>
       </c>
@@ -83373,7 +83894,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>0</v>
       </c>
@@ -83383,8 +83904,14 @@
       <c r="O194" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V194" t="s">
+        <v>31</v>
+      </c>
+      <c r="X194" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="195" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>75</v>
       </c>
@@ -83394,8 +83921,11 @@
       <c r="O195" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V195" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="196" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>25</v>
       </c>
@@ -83405,8 +83935,11 @@
       <c r="O196" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V196" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="197" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>0</v>
       </c>
@@ -83416,8 +83949,11 @@
       <c r="O197" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X197" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="198" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>20</v>
       </c>
@@ -83427,8 +83963,11 @@
       <c r="O198" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W198" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>2</v>
       </c>
@@ -83438,8 +83977,11 @@
       <c r="O199" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W199" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="200" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>40</v>
       </c>
@@ -83449,8 +83991,11 @@
       <c r="O200" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V200" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="201" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>120</v>
       </c>
@@ -83460,8 +84005,14 @@
       <c r="O201" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V201" t="s">
+        <v>31</v>
+      </c>
+      <c r="X201" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="202" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1</v>
       </c>
@@ -83471,8 +84022,14 @@
       <c r="O202" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W202" t="s">
+        <v>32</v>
+      </c>
+      <c r="X202" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="203" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>40</v>
       </c>
@@ -83482,8 +84039,11 @@
       <c r="O203" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W203" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="204" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>25</v>
       </c>
@@ -83493,8 +84053,11 @@
       <c r="O204" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V204" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="205" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>0</v>
       </c>
@@ -83505,7 +84068,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>40</v>
       </c>
@@ -83515,8 +84078,11 @@
       <c r="O206" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X206" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="207" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>30</v>
       </c>
@@ -83526,8 +84092,11 @@
       <c r="O207" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W207" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="208" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>60</v>
       </c>
@@ -83538,7 +84107,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>30</v>
       </c>
@@ -83548,8 +84117,11 @@
       <c r="O209" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X209" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="210" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>20</v>
       </c>
@@ -83559,8 +84131,11 @@
       <c r="O210" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V210" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="211" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>120</v>
       </c>
@@ -83570,8 +84145,11 @@
       <c r="O211" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X211" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="212" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>120</v>
       </c>
@@ -83581,8 +84159,11 @@
       <c r="O212" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X212" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="213" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>360</v>
       </c>
@@ -83593,7 +84174,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>120</v>
       </c>
@@ -83604,7 +84185,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>40</v>
       </c>
@@ -83615,7 +84196,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>40</v>
       </c>
@@ -83625,8 +84206,11 @@
       <c r="O216" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W216" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="217" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>15</v>
       </c>
@@ -83636,8 +84220,11 @@
       <c r="O217" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X217" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="218" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>60</v>
       </c>
@@ -83648,7 +84235,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>180</v>
       </c>
@@ -83658,8 +84245,11 @@
       <c r="O219" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V219" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="220" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>30</v>
       </c>
@@ -83670,7 +84260,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>60</v>
       </c>
@@ -83680,8 +84270,11 @@
       <c r="O221" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X221" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="222" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>90</v>
       </c>
@@ -83692,7 +84285,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>100</v>
       </c>
@@ -83703,7 +84296,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>5</v>
       </c>
@@ -83713,8 +84306,11 @@
       <c r="O224" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X224" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="225" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>20</v>
       </c>
@@ -83725,7 +84321,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>2</v>
       </c>
@@ -83736,7 +84332,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>2</v>
       </c>
@@ -83746,8 +84342,11 @@
       <c r="O227" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W227" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="228" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>10</v>
       </c>
@@ -83757,8 +84356,11 @@
       <c r="O228" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V228" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="229" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>0</v>
       </c>
@@ -83768,8 +84370,11 @@
       <c r="O229" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X229" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="230" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>45</v>
       </c>
@@ -83779,8 +84384,11 @@
       <c r="O230" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V230" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="231" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>60</v>
       </c>
@@ -83790,8 +84398,11 @@
       <c r="O231" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V231" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="232" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>0</v>
       </c>
@@ -83801,8 +84412,11 @@
       <c r="O232" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X232" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="233" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>120</v>
       </c>
@@ -83812,8 +84426,11 @@
       <c r="O233" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W233" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="234" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>40</v>
       </c>
@@ -83823,8 +84440,11 @@
       <c r="O234" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U234" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="235" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>35</v>
       </c>
@@ -83835,7 +84455,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>40</v>
       </c>
@@ -83846,7 +84466,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>60</v>
       </c>
@@ -83857,7 +84477,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>40</v>
       </c>
@@ -83867,8 +84487,11 @@
       <c r="O238" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X238" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="239" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>0</v>
       </c>
@@ -83878,8 +84501,11 @@
       <c r="O239" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V239" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="240" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>80</v>
       </c>
@@ -83889,8 +84515,14 @@
       <c r="O240" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V240" t="s">
+        <v>31</v>
+      </c>
+      <c r="X240" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="241" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>10</v>
       </c>
@@ -83900,8 +84532,11 @@
       <c r="O241" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V241" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="242" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>150</v>
       </c>
@@ -83911,8 +84546,11 @@
       <c r="O242" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V242" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="243" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>60</v>
       </c>
@@ -83923,7 +84561,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>0</v>
       </c>
@@ -83933,8 +84571,14 @@
       <c r="O244" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V244" t="s">
+        <v>31</v>
+      </c>
+      <c r="W244" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="245" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>40</v>
       </c>
@@ -83944,8 +84588,14 @@
       <c r="O245" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V245" t="s">
+        <v>31</v>
+      </c>
+      <c r="W245" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="246" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>3</v>
       </c>
@@ -83956,7 +84606,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>0</v>
       </c>
@@ -83967,7 +84617,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>80</v>
       </c>
@@ -83978,7 +84628,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>30</v>
       </c>
@@ -83988,8 +84638,11 @@
       <c r="O249" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V249" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="250" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>2</v>
       </c>
@@ -83999,8 +84652,11 @@
       <c r="O250" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V250" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="251" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>60</v>
       </c>
@@ -84011,7 +84667,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>30</v>
       </c>
@@ -84021,8 +84677,14 @@
       <c r="O252" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V252" t="s">
+        <v>31</v>
+      </c>
+      <c r="X252" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="253" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>60</v>
       </c>
@@ -84033,7 +84695,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>0</v>
       </c>
@@ -84044,7 +84706,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>0</v>
       </c>
@@ -84054,8 +84716,11 @@
       <c r="O255" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V255" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="256" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>0</v>
       </c>
@@ -84066,7 +84731,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>45</v>
       </c>
@@ -84077,7 +84742,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>0</v>
       </c>
@@ -84088,7 +84753,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>2</v>
       </c>
@@ -84099,7 +84764,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>15</v>
       </c>
@@ -84109,8 +84774,11 @@
       <c r="O260" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X260" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="261" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>0</v>
       </c>
@@ -84120,8 +84788,11 @@
       <c r="O261" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V261" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="262" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>90</v>
       </c>
@@ -84132,7 +84803,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>90</v>
       </c>
@@ -84142,8 +84813,11 @@
       <c r="O263" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V263" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="264" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>100</v>
       </c>
@@ -84153,8 +84827,11 @@
       <c r="O264" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W264" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="265" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>15</v>
       </c>
@@ -84165,7 +84842,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>2</v>
       </c>
@@ -84176,7 +84853,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>15</v>
       </c>
@@ -84186,8 +84863,11 @@
       <c r="O267" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W267" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="268" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>270</v>
       </c>
@@ -84197,8 +84877,11 @@
       <c r="O268" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V268" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="269" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>20</v>
       </c>
@@ -84209,7 +84892,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>60</v>
       </c>
@@ -84220,7 +84903,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>0</v>
       </c>
@@ -84231,7 +84914,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>30</v>
       </c>
@@ -84241,8 +84924,14 @@
       <c r="O272" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V272" t="s">
+        <v>31</v>
+      </c>
+      <c r="W272" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="273" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>0</v>
       </c>
@@ -84253,7 +84942,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>0</v>
       </c>
@@ -84264,7 +84953,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>50</v>
       </c>
@@ -84274,8 +84963,11 @@
       <c r="O275" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W275" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="276" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>120</v>
       </c>
@@ -84286,7 +84978,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>30</v>
       </c>
@@ -84296,8 +84988,11 @@
       <c r="O277" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U277" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="278" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>60</v>
       </c>
@@ -84308,7 +85003,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>0</v>
       </c>
@@ -84319,7 +85014,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>30</v>
       </c>
@@ -84329,8 +85024,11 @@
       <c r="O280" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X280" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="281" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>50</v>
       </c>
@@ -84341,7 +85039,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>120</v>
       </c>
@@ -84351,8 +85049,11 @@
       <c r="O282" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X282" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="283" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>0</v>
       </c>
@@ -84363,7 +85064,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>150</v>
       </c>
@@ -84373,8 +85074,11 @@
       <c r="O284" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W284" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="285" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>30</v>
       </c>
@@ -84384,8 +85088,14 @@
       <c r="O285" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V285" t="s">
+        <v>31</v>
+      </c>
+      <c r="W285" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="286" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>0</v>
       </c>
@@ -84395,8 +85105,11 @@
       <c r="O286" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W286" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="287" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>20</v>
       </c>
@@ -84407,7 +85120,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>45</v>
       </c>
@@ -84418,7 +85131,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>75</v>
       </c>
@@ -84429,7 +85142,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>35</v>
       </c>
@@ -84439,8 +85152,11 @@
       <c r="O290" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V290" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="291" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>30</v>
       </c>
@@ -84451,7 +85167,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>90</v>
       </c>
@@ -84462,7 +85178,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>20</v>
       </c>
@@ -84472,8 +85188,11 @@
       <c r="O293" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W293" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="294" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>0</v>
       </c>
@@ -84483,8 +85202,11 @@
       <c r="O294" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W294" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="295" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>120</v>
       </c>
@@ -84494,8 +85216,11 @@
       <c r="O295" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W295" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="296" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>6</v>
       </c>
@@ -84506,7 +85231,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>0</v>
       </c>
@@ -84517,7 +85242,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>0</v>
       </c>
@@ -84528,7 +85253,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>0</v>
       </c>
@@ -84538,8 +85263,11 @@
       <c r="O299" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W299" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="300" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>0</v>
       </c>
@@ -84549,8 +85277,11 @@
       <c r="O300" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X300" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="301" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>60</v>
       </c>
@@ -84561,7 +85292,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>5</v>
       </c>
@@ -84571,8 +85302,14 @@
       <c r="O302" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V302" t="s">
+        <v>31</v>
+      </c>
+      <c r="W302" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="303" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>60</v>
       </c>
@@ -84583,7 +85320,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>80</v>
       </c>
@@ -84594,7 +85331,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>25</v>
       </c>
@@ -84604,8 +85341,11 @@
       <c r="O305" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V305" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="306" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>30</v>
       </c>
@@ -84615,8 +85355,11 @@
       <c r="O306" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V306" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="307" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>90</v>
       </c>
@@ -84626,8 +85369,11 @@
       <c r="O307" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W307" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="308" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>150</v>
       </c>
@@ -84637,8 +85383,11 @@
       <c r="O308" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V308" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="309" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>30</v>
       </c>
@@ -84649,7 +85398,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>60</v>
       </c>
@@ -84660,7 +85409,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>0</v>
       </c>
@@ -84670,8 +85419,11 @@
       <c r="O311" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V311" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="312" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>90</v>
       </c>
@@ -84682,7 +85434,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>15</v>
       </c>
@@ -84693,7 +85445,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>0</v>
       </c>
@@ -84703,8 +85455,11 @@
       <c r="O314" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W314" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="315" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>30</v>
       </c>
@@ -84715,7 +85470,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>40</v>
       </c>
@@ -84726,7 +85481,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>35</v>
       </c>
@@ -84736,8 +85491,11 @@
       <c r="O317" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W317" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="318" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>40</v>
       </c>
@@ -84747,8 +85505,11 @@
       <c r="O318" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W318" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="319" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>30</v>
       </c>
@@ -84759,7 +85520,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>0</v>
       </c>
@@ -84769,8 +85530,11 @@
       <c r="O320" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W320" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="321" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>45</v>
       </c>
@@ -84781,7 +85545,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>0</v>
       </c>
@@ -84791,8 +85555,11 @@
       <c r="O322" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V322" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="323" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>0</v>
       </c>
@@ -84802,8 +85569,11 @@
       <c r="O323" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W323" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="324" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>0</v>
       </c>
@@ -84814,7 +85584,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>0</v>
       </c>
@@ -84824,8 +85594,11 @@
       <c r="O325" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X325" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="326" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>120</v>
       </c>
@@ -84835,8 +85608,11 @@
       <c r="O326" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W326" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="327" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>15</v>
       </c>
@@ -84846,8 +85622,11 @@
       <c r="O327" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W327" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="328" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>180</v>
       </c>
@@ -84857,8 +85636,11 @@
       <c r="O328" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W328" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="329" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>2</v>
       </c>
@@ -84869,7 +85651,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>0</v>
       </c>
@@ -84880,7 +85662,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>30</v>
       </c>
@@ -84890,8 +85672,11 @@
       <c r="O331" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U331" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="332" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>0</v>
       </c>
@@ -84901,8 +85686,11 @@
       <c r="O332" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W332" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="333" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>10</v>
       </c>
@@ -84912,8 +85700,11 @@
       <c r="O333" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V333" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="334" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>110</v>
       </c>
@@ -84924,7 +85715,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>60</v>
       </c>
@@ -84934,8 +85725,11 @@
       <c r="O335" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X335" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="336" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>0</v>
       </c>
@@ -84945,8 +85739,11 @@
       <c r="O336" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W336" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="337" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>120</v>
       </c>
@@ -84956,8 +85753,11 @@
       <c r="O337" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W337" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="338" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>0</v>
       </c>
@@ -84967,8 +85767,11 @@
       <c r="O338" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W338" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="339" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>120</v>
       </c>
@@ -84979,7 +85782,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>40</v>
       </c>
@@ -84989,8 +85792,11 @@
       <c r="O340" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X340" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="341" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>0</v>
       </c>
@@ -85001,7 +85807,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>120</v>
       </c>
@@ -85011,8 +85817,11 @@
       <c r="O342" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W342" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="343" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>420</v>
       </c>
@@ -85022,8 +85831,11 @@
       <c r="O343" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W343" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="344" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>0</v>
       </c>
@@ -85034,7 +85846,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>25</v>
       </c>
@@ -85045,7 +85857,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>30</v>
       </c>
@@ -85056,7 +85868,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>20</v>
       </c>
@@ -85066,8 +85878,14 @@
       <c r="O347" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V347" t="s">
+        <v>31</v>
+      </c>
+      <c r="W347" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="348" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>10</v>
       </c>
@@ -85077,8 +85895,11 @@
       <c r="O348" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W348" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="349" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>25</v>
       </c>
@@ -85089,7 +85910,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>30</v>
       </c>
@@ -85099,8 +85920,11 @@
       <c r="O350" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W350" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="351" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>180</v>
       </c>
@@ -85111,7 +85935,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>0</v>
       </c>
@@ -85121,8 +85945,11 @@
       <c r="O352" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W352" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="353" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>2</v>
       </c>
@@ -85133,7 +85960,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>100</v>
       </c>
@@ -85144,7 +85971,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>15</v>
       </c>
@@ -85155,7 +85982,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>120</v>
       </c>
@@ -85165,8 +85992,11 @@
       <c r="O356" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V356" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="357" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>0</v>
       </c>
@@ -85177,7 +86007,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>10</v>
       </c>
@@ -85187,8 +86017,11 @@
       <c r="O358" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V358" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="359" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>0</v>
       </c>
@@ -85199,7 +86032,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>20</v>
       </c>
@@ -85209,8 +86042,11 @@
       <c r="O360" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X360" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="361" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>13</v>
       </c>
@@ -85221,7 +86057,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>120</v>
       </c>
@@ -85231,8 +86067,11 @@
       <c r="O362" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V362" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="363" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>45</v>
       </c>
@@ -85242,8 +86081,11 @@
       <c r="O363" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X363" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="364" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>2</v>
       </c>
@@ -85253,8 +86095,14 @@
       <c r="O364" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V364" t="s">
+        <v>31</v>
+      </c>
+      <c r="W364" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="365" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>30</v>
       </c>
@@ -85265,7 +86113,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>90</v>
       </c>
@@ -85275,8 +86123,11 @@
       <c r="O366" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W366" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="367" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>0</v>
       </c>
@@ -85287,7 +86138,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>0</v>
       </c>
@@ -85297,8 +86148,11 @@
       <c r="O368" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W368" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="369" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>0</v>
       </c>
@@ -85309,7 +86163,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>80</v>
       </c>
@@ -85319,8 +86173,11 @@
       <c r="O370" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V370" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="371" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>30</v>
       </c>
@@ -85330,8 +86187,11 @@
       <c r="O371" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W371" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="372" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>30</v>
       </c>
@@ -85342,7 +86202,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>60</v>
       </c>
@@ -85352,8 +86212,11 @@
       <c r="O373" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V373" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="374" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>60</v>
       </c>
@@ -85364,7 +86227,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>8</v>
       </c>
@@ -85374,8 +86237,11 @@
       <c r="O375" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W375" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="376" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>30</v>
       </c>
@@ -85386,7 +86252,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>2</v>
       </c>
@@ -85397,7 +86263,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>100</v>
       </c>
@@ -85408,7 +86274,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>90</v>
       </c>
@@ -85419,7 +86285,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>45</v>
       </c>
@@ -85429,8 +86295,11 @@
       <c r="O380" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W380" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="381" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>90</v>
       </c>
@@ -85440,8 +86309,11 @@
       <c r="O381" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X381" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="382" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>45</v>
       </c>
@@ -85451,8 +86323,11 @@
       <c r="O382" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W382" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="383" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>15</v>
       </c>
@@ -85462,8 +86337,11 @@
       <c r="O383" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W383" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="384" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>2</v>
       </c>
@@ -85474,7 +86352,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>80</v>
       </c>
@@ -85485,7 +86363,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>0</v>
       </c>
@@ -85496,7 +86374,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>40</v>
       </c>
@@ -85507,7 +86385,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>40</v>
       </c>
@@ -85518,7 +86396,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>35</v>
       </c>
@@ -85529,7 +86407,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>140</v>
       </c>
@@ -85539,8 +86417,11 @@
       <c r="O390" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X390" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="391" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>120</v>
       </c>
@@ -85550,8 +86431,11 @@
       <c r="O391" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W391" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="392" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>50</v>
       </c>
@@ -85561,8 +86445,11 @@
       <c r="O392" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X392" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="393" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>60</v>
       </c>
@@ -85573,7 +86460,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>30</v>
       </c>
@@ -85584,7 +86471,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>40</v>
       </c>
@@ -85594,8 +86481,11 @@
       <c r="O395" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W395" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="396" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>0</v>
       </c>
@@ -85605,8 +86495,11 @@
       <c r="O396" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W396" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="397" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>3</v>
       </c>
@@ -85617,7 +86510,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>0</v>
       </c>
@@ -85628,7 +86521,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>20</v>
       </c>
@@ -85638,8 +86531,11 @@
       <c r="O399" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X399" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="400" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>90</v>
       </c>
@@ -85649,8 +86545,11 @@
       <c r="O400" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X400" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="401" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>0</v>
       </c>
@@ -85660,8 +86559,11 @@
       <c r="O401" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V401" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="402" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>30</v>
       </c>
@@ -85671,8 +86573,11 @@
       <c r="O402" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V402" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="403" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>100</v>
       </c>
@@ -85682,8 +86587,11 @@
       <c r="O403" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W403" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="404" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>10</v>
       </c>
@@ -85693,8 +86601,11 @@
       <c r="O404" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W404" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="405" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>45</v>
       </c>
@@ -85704,8 +86615,11 @@
       <c r="O405" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V405" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="406" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>60</v>
       </c>
@@ -85715,8 +86629,11 @@
       <c r="O406" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X406" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="407" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>10</v>
       </c>
@@ -85726,8 +86643,11 @@
       <c r="O407" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W407" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="408" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>60</v>
       </c>
@@ -85738,7 +86658,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>50</v>
       </c>
@@ -85748,8 +86668,11 @@
       <c r="O409" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W409" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="410" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>180</v>
       </c>
@@ -85760,7 +86683,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>180</v>
       </c>
@@ -85770,8 +86693,11 @@
       <c r="O411" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W411" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="412" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>90</v>
       </c>
@@ -85782,7 +86708,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>40</v>
       </c>
@@ -85792,8 +86718,11 @@
       <c r="O413" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X413" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="414" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>40</v>
       </c>
@@ -85803,8 +86732,11 @@
       <c r="O414" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X414" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="415" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>30</v>
       </c>
@@ -85815,7 +86747,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>60</v>
       </c>
@@ -85825,8 +86757,11 @@
       <c r="O416" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W416" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="417" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>60</v>
       </c>
@@ -85836,8 +86771,11 @@
       <c r="O417" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V417" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="418" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>30</v>
       </c>
@@ -85847,8 +86785,11 @@
       <c r="O418" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X418" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="419" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>40</v>
       </c>
@@ -85859,7 +86800,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>180</v>
       </c>
@@ -85869,8 +86810,11 @@
       <c r="O420" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V420" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="421" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>60</v>
       </c>
@@ -85880,8 +86824,14 @@
       <c r="O421" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V421" t="s">
+        <v>31</v>
+      </c>
+      <c r="X421" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="422" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>3</v>
       </c>
@@ -85891,8 +86841,11 @@
       <c r="O422" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X422" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="423" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>0</v>
       </c>
@@ -85902,8 +86855,11 @@
       <c r="O423" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W423" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="424" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>1</v>
       </c>
@@ -85914,7 +86870,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>60</v>
       </c>
@@ -85924,8 +86880,11 @@
       <c r="O425" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X425" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="426" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>240</v>
       </c>
@@ -85936,7 +86895,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>0</v>
       </c>
@@ -85946,8 +86905,11 @@
       <c r="O427" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W427" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="428" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>0</v>
       </c>
@@ -85957,8 +86919,11 @@
       <c r="O428" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X428" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="429" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>40</v>
       </c>
@@ -85968,8 +86933,11 @@
       <c r="O429" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W429" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="430" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>120</v>
       </c>
@@ -85979,8 +86947,11 @@
       <c r="O430" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V430" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="431" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>20</v>
       </c>
@@ -85990,8 +86961,11 @@
       <c r="O431" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V431" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="432" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>15</v>
       </c>
@@ -86001,8 +86975,11 @@
       <c r="O432" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W432" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="433" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>0</v>
       </c>
@@ -86012,8 +86989,11 @@
       <c r="O433" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V433" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="434" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>40</v>
       </c>
@@ -86023,8 +87003,11 @@
       <c r="O434" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W434" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="435" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>30</v>
       </c>
@@ -86034,8 +87017,11 @@
       <c r="O435" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V435" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="436" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>0</v>
       </c>
@@ -86045,8 +87031,11 @@
       <c r="O436" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W436" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="437" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>60</v>
       </c>
@@ -86056,8 +87045,11 @@
       <c r="O437" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V437" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="438" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>0</v>
       </c>
@@ -86068,7 +87060,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>50</v>
       </c>
@@ -86079,7 +87071,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>30</v>
       </c>
@@ -86089,8 +87081,11 @@
       <c r="O440" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W440" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="441" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>0</v>
       </c>
@@ -86100,8 +87095,11 @@
       <c r="O441" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X441" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="442" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>0</v>
       </c>
@@ -86112,7 +87110,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>75</v>
       </c>
@@ -86123,7 +87121,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>0</v>
       </c>
@@ -86133,8 +87131,11 @@
       <c r="O444" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X444" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="445" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>1</v>
       </c>
@@ -86144,8 +87145,14 @@
       <c r="O445" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V445" t="s">
+        <v>31</v>
+      </c>
+      <c r="W445" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="446" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>90</v>
       </c>
@@ -86156,7 +87163,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>0</v>
       </c>
@@ -86167,7 +87174,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>180</v>
       </c>
@@ -86178,7 +87185,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>1</v>
       </c>
@@ -86188,8 +87195,11 @@
       <c r="O449" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W449" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="450" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>6</v>
       </c>
@@ -86199,8 +87209,11 @@
       <c r="O450" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W450" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="451" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>50</v>
       </c>
@@ -86210,8 +87223,11 @@
       <c r="O451" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W451" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="452" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>75</v>
       </c>
@@ -86221,8 +87237,11 @@
       <c r="O452" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W452" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="453" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>0</v>
       </c>
@@ -86232,8 +87251,14 @@
       <c r="O453" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W453" t="s">
+        <v>32</v>
+      </c>
+      <c r="X453" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="454" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>70</v>
       </c>
@@ -86243,8 +87268,11 @@
       <c r="O454" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X454" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="455" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>0</v>
       </c>
@@ -86255,7 +87283,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>30</v>
       </c>
@@ -86266,7 +87294,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>0</v>
       </c>
@@ -86276,8 +87304,14 @@
       <c r="O457" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V457" t="s">
+        <v>31</v>
+      </c>
+      <c r="W457" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="458" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>50</v>
       </c>
@@ -86287,8 +87321,11 @@
       <c r="O458" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W458" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="459" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>10</v>
       </c>
@@ -86299,7 +87336,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>120</v>
       </c>
@@ -86310,7 +87347,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>60</v>
       </c>
@@ -86320,8 +87357,11 @@
       <c r="O461" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V461" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="462" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>20</v>
       </c>
@@ -86331,8 +87371,11 @@
       <c r="O462" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W462" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="463" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>0</v>
       </c>
@@ -86343,7 +87386,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>0</v>
       </c>
@@ -86354,7 +87397,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>0</v>
       </c>
@@ -86364,8 +87407,11 @@
       <c r="O465" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V465" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="466" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>0</v>
       </c>
@@ -86375,8 +87421,11 @@
       <c r="O466" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V466" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="467" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>90</v>
       </c>
@@ -86386,8 +87435,17 @@
       <c r="O467" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V467" t="s">
+        <v>31</v>
+      </c>
+      <c r="W467" t="s">
+        <v>32</v>
+      </c>
+      <c r="X467" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="468" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>48</v>
       </c>
@@ -86397,8 +87455,11 @@
       <c r="O468" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W468" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="469" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>0</v>
       </c>
@@ -86409,7 +87470,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>0</v>
       </c>
@@ -86419,8 +87480,11 @@
       <c r="O470" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W470" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="471" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>180</v>
       </c>
@@ -86430,8 +87494,14 @@
       <c r="O471" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W471" t="s">
+        <v>32</v>
+      </c>
+      <c r="X471" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="472" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>120</v>
       </c>
@@ -86442,7 +87512,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>120</v>
       </c>
@@ -86452,8 +87522,11 @@
       <c r="O473" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W473" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="474" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>0</v>
       </c>
@@ -86464,7 +87537,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>50</v>
       </c>
@@ -86475,7 +87548,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>25</v>
       </c>
@@ -86485,8 +87558,11 @@
       <c r="O476" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W476" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="477" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>60</v>
       </c>
@@ -86497,7 +87573,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>30</v>
       </c>
@@ -86508,7 +87584,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>0</v>
       </c>
@@ -86518,8 +87594,11 @@
       <c r="O479" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V479" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="480" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>30</v>
       </c>
@@ -86530,7 +87609,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>40</v>
       </c>
@@ -86540,8 +87619,11 @@
       <c r="O481" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W481" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="482" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>80</v>
       </c>
@@ -86551,8 +87633,11 @@
       <c r="O482" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V482" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="483" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>0</v>
       </c>
@@ -86563,7 +87648,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>30</v>
       </c>
@@ -86573,8 +87658,14 @@
       <c r="O484" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V484" t="s">
+        <v>31</v>
+      </c>
+      <c r="W484" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="485" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>100</v>
       </c>
@@ -86585,7 +87676,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>30</v>
       </c>
@@ -86596,7 +87687,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>0</v>
       </c>
@@ -86606,8 +87697,11 @@
       <c r="O487" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V487" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="488" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>60</v>
       </c>
@@ -86617,8 +87711,11 @@
       <c r="O488" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W488" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="489" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>0</v>
       </c>
@@ -86628,8 +87725,11 @@
       <c r="O489" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W489" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="490" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>0</v>
       </c>
@@ -86640,7 +87740,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>45</v>
       </c>
@@ -86651,7 +87751,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>80</v>
       </c>
@@ -86661,8 +87761,11 @@
       <c r="O492" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X492" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="493" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>60</v>
       </c>
@@ -86672,8 +87775,11 @@
       <c r="O493" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W493" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="494" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>35</v>
       </c>
@@ -86684,7 +87790,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>0</v>
       </c>
@@ -86694,8 +87800,11 @@
       <c r="O495" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V495" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="496" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>0</v>
       </c>
@@ -86705,8 +87814,11 @@
       <c r="O496" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W496" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="497" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>30</v>
       </c>
@@ -86716,8 +87828,11 @@
       <c r="O497" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V497" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="498" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>60</v>
       </c>
@@ -86727,8 +87842,11 @@
       <c r="O498" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W498" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="499" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>20</v>
       </c>
@@ -86738,8 +87856,11 @@
       <c r="O499" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W499" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="500" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>15</v>
       </c>
@@ -86749,8 +87870,11 @@
       <c r="O500" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W500" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="501" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>50</v>
       </c>
@@ -86761,7 +87885,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>15</v>
       </c>
@@ -86771,8 +87895,11 @@
       <c r="O502" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W502" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="503" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>30</v>
       </c>
@@ -86783,7 +87910,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>20</v>
       </c>
@@ -86793,8 +87920,11 @@
       <c r="O504" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W504" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="505" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>30</v>
       </c>
@@ -86804,8 +87934,11 @@
       <c r="O505" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W505" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="506" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>60</v>
       </c>
@@ -86816,7 +87949,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>2</v>
       </c>
@@ -86827,7 +87960,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>0</v>
       </c>
@@ -86837,8 +87970,11 @@
       <c r="O508" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V508" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="509" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>0</v>
       </c>
@@ -86848,8 +87984,11 @@
       <c r="O509" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X509" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="510" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>20</v>
       </c>
@@ -86859,8 +87998,11 @@
       <c r="O510" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U510" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="511" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>200</v>
       </c>
@@ -86871,7 +88013,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>45</v>
       </c>
@@ -86881,8 +88023,11 @@
       <c r="O512" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U512" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="513" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>25</v>
       </c>
@@ -86893,7 +88038,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>70</v>
       </c>
@@ -86904,7 +88049,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>0</v>
       </c>
@@ -86914,8 +88059,14 @@
       <c r="O515" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V515" t="s">
+        <v>31</v>
+      </c>
+      <c r="W515" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="516" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>2</v>
       </c>
@@ -86925,8 +88076,11 @@
       <c r="O516" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V516" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="517" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>60</v>
       </c>
@@ -86936,8 +88090,11 @@
       <c r="O517" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W517" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="518" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>45</v>
       </c>
@@ -86948,7 +88105,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>250</v>
       </c>
@@ -86958,8 +88115,11 @@
       <c r="O519" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X519" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="520" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>30</v>
       </c>
@@ -86969,8 +88129,11 @@
       <c r="O520" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X520" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="521" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>50</v>
       </c>
@@ -86981,7 +88144,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>130</v>
       </c>
@@ -86992,7 +88155,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>30</v>
       </c>
@@ -87003,7 +88166,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>5</v>
       </c>
@@ -87013,8 +88176,11 @@
       <c r="O524" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W524" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="525" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>0</v>
       </c>
@@ -87024,8 +88190,11 @@
       <c r="O525" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W525" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="526" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>0</v>
       </c>
@@ -87035,8 +88204,14 @@
       <c r="O526" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V526" t="s">
+        <v>31</v>
+      </c>
+      <c r="W526" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="527" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>45</v>
       </c>
@@ -87047,7 +88222,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>13</v>
       </c>
@@ -87057,8 +88232,11 @@
       <c r="O528" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W528" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="529" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>0</v>
       </c>
@@ -87068,8 +88246,11 @@
       <c r="O529" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W529" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="530" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>30</v>
       </c>
@@ -87080,7 +88261,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>60</v>
       </c>
@@ -87091,7 +88272,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>0</v>
       </c>
@@ -87102,7 +88283,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>60</v>
       </c>
@@ -87112,8 +88293,11 @@
       <c r="O533" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V533" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="534" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>10</v>
       </c>
@@ -87123,8 +88307,11 @@
       <c r="O534" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X534" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="535" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>120</v>
       </c>
@@ -87134,8 +88321,11 @@
       <c r="O535" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V535" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="536" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>40</v>
       </c>
@@ -87145,8 +88335,11 @@
       <c r="O536" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W536" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="537" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>90</v>
       </c>
@@ -87157,7 +88350,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>120</v>
       </c>
@@ -87167,8 +88360,11 @@
       <c r="O538" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W538" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="539" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>60</v>
       </c>
@@ -87178,8 +88374,11 @@
       <c r="O539" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V539" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="540" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>0</v>
       </c>
@@ -87190,7 +88389,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>0</v>
       </c>
@@ -87200,8 +88399,17 @@
       <c r="O541" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V541" t="s">
+        <v>31</v>
+      </c>
+      <c r="W541" t="s">
+        <v>32</v>
+      </c>
+      <c r="X541" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="542" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>0</v>
       </c>
@@ -87211,8 +88419,11 @@
       <c r="O542" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X542" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="543" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>15</v>
       </c>
@@ -87222,8 +88433,11 @@
       <c r="O543" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W543" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="544" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>10</v>
       </c>
@@ -87234,7 +88448,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="545" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>0</v>
       </c>
@@ -87244,8 +88458,11 @@
       <c r="O545" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W545" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="546" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>45</v>
       </c>
@@ -87255,8 +88472,11 @@
       <c r="O546" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="547" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W546" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="547" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>120</v>
       </c>
@@ -87266,8 +88486,11 @@
       <c r="O547" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="548" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V547" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="548" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>15</v>
       </c>
@@ -87278,7 +88501,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="549" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>0</v>
       </c>
@@ -87288,8 +88511,14 @@
       <c r="O549" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="550" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V549" t="s">
+        <v>31</v>
+      </c>
+      <c r="W549" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="550" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>20</v>
       </c>
@@ -87300,7 +88529,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="551" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>10</v>
       </c>
@@ -87311,7 +88540,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="552" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>30</v>
       </c>
@@ -87321,8 +88550,11 @@
       <c r="O552" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="553" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W552" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="553" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>60</v>
       </c>
@@ -87333,7 +88565,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="554" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>40</v>
       </c>
@@ -87343,8 +88575,11 @@
       <c r="O554" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="555" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V554" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="555" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>70</v>
       </c>
@@ -87354,8 +88589,11 @@
       <c r="O555" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="556" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W555" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="556" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>0</v>
       </c>
@@ -87365,8 +88603,11 @@
       <c r="O556" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="557" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X556" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="557" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>95</v>
       </c>
@@ -87376,8 +88617,11 @@
       <c r="O557" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="558" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V557" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="558" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>30</v>
       </c>
@@ -87387,8 +88631,11 @@
       <c r="O558" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="559" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W558" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="559" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>0</v>
       </c>
@@ -87398,8 +88645,11 @@
       <c r="O559" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="560" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W559" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="560" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>8</v>
       </c>
@@ -87409,8 +88659,11 @@
       <c r="O560" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="561" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W560" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="561" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>20</v>
       </c>
@@ -87420,8 +88673,11 @@
       <c r="O561" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="562" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W561" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="562" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>60</v>
       </c>
@@ -87431,8 +88687,11 @@
       <c r="O562" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="563" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W562" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="563" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>20</v>
       </c>
@@ -87442,8 +88701,11 @@
       <c r="O563" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="564" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W563" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="564" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>40</v>
       </c>
@@ -87454,7 +88716,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="565" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>90</v>
       </c>
@@ -87464,8 +88726,11 @@
       <c r="O565" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="566" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W565" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="566" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>0</v>
       </c>
@@ -87475,8 +88740,11 @@
       <c r="O566" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="567" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W566" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="567" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>10</v>
       </c>
@@ -87487,7 +88755,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="568" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>30</v>
       </c>
@@ -87497,8 +88765,11 @@
       <c r="O568" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="569" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V568" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="569" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>40</v>
       </c>
@@ -87508,8 +88779,11 @@
       <c r="O569" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="570" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W569" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="570" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>30</v>
       </c>
@@ -87520,7 +88794,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="571" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>180</v>
       </c>
@@ -87530,8 +88804,11 @@
       <c r="O571" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="572" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W571" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="572" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>60</v>
       </c>
@@ -87542,7 +88819,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="573" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>60</v>
       </c>
@@ -87552,8 +88829,11 @@
       <c r="O573" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="574" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V573" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="574" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>20</v>
       </c>
@@ -87563,8 +88843,11 @@
       <c r="O574" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="575" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W574" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="575" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>80</v>
       </c>
@@ -87575,7 +88858,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="576" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>120</v>
       </c>
@@ -87585,8 +88868,11 @@
       <c r="O576" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="577" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X576" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="577" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>80</v>
       </c>
@@ -87596,8 +88882,11 @@
       <c r="O577" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="578" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V577" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="578" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>80</v>
       </c>
@@ -87608,7 +88897,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="579" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>30</v>
       </c>
@@ -87619,7 +88908,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="580" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>60</v>
       </c>
@@ -87629,8 +88918,11 @@
       <c r="O580" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="581" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W580" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="581" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>5</v>
       </c>
@@ -87640,8 +88932,11 @@
       <c r="O581" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="582" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V581" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="582" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>20</v>
       </c>
@@ -87651,8 +88946,11 @@
       <c r="O582" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="583" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V582" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="583" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>60</v>
       </c>
@@ -87663,7 +88961,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="584" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>0</v>
       </c>
@@ -87673,8 +88971,11 @@
       <c r="O584" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="585" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X584" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="585" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>40</v>
       </c>
@@ -87684,8 +88985,11 @@
       <c r="O585" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="586" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V585" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="586" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>120</v>
       </c>
@@ -87696,7 +89000,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="587" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>15</v>
       </c>
@@ -87706,8 +89010,11 @@
       <c r="O587" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="588" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W587" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="588" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>0</v>
       </c>
@@ -87717,8 +89024,11 @@
       <c r="O588" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="589" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W588" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="589" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>90</v>
       </c>
@@ -87728,8 +89038,11 @@
       <c r="O589" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="590" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X589" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="590" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>60</v>
       </c>
@@ -87739,8 +89052,11 @@
       <c r="O590" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="591" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W590" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="591" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>90</v>
       </c>
@@ -87751,7 +89067,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="592" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>21</v>
       </c>
@@ -87761,8 +89077,11 @@
       <c r="O592" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="593" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W592" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="593" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>20</v>
       </c>
@@ -87773,7 +89092,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="594" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>60</v>
       </c>
@@ -87784,7 +89103,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="595" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>240</v>
       </c>
@@ -87795,7 +89114,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="596" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>30</v>
       </c>
@@ -87806,7 +89125,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="597" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>40</v>
       </c>
@@ -87816,8 +89135,11 @@
       <c r="O597" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="598" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U597" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="598" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>30</v>
       </c>
@@ -87827,8 +89149,11 @@
       <c r="O598" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="599" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W598" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="599" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>15</v>
       </c>
@@ -87839,7 +89164,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="600" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>2</v>
       </c>
@@ -87849,8 +89174,14 @@
       <c r="O600" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="601" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V600" t="s">
+        <v>31</v>
+      </c>
+      <c r="W600" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="601" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>150</v>
       </c>
@@ -87861,7 +89192,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="602" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>2</v>
       </c>
@@ -87872,7 +89203,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="603" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>40</v>
       </c>
@@ -87882,8 +89213,11 @@
       <c r="O603" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="604" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W603" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="604" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>90</v>
       </c>
@@ -87894,7 +89228,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="605" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>20</v>
       </c>
@@ -87905,7 +89239,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="606" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>0</v>
       </c>
@@ -87915,8 +89249,11 @@
       <c r="O606" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="607" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V606" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="607" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>0</v>
       </c>
@@ -87926,8 +89263,11 @@
       <c r="O607" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="608" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W607" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="608" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>60</v>
       </c>
@@ -87938,7 +89278,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="609" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>60</v>
       </c>
@@ -87948,8 +89288,11 @@
       <c r="O609" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="610" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W609" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="610" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>60</v>
       </c>
@@ -87959,8 +89302,11 @@
       <c r="O610" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="611" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W610" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="611" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>5</v>
       </c>
@@ -87970,8 +89316,11 @@
       <c r="O611" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="612" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V611" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="612" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>30</v>
       </c>
@@ -87982,7 +89331,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="613" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>120</v>
       </c>
@@ -87993,7 +89342,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="614" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>50</v>
       </c>
@@ -88003,8 +89352,11 @@
       <c r="O614" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="615" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W614" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="615" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>0</v>
       </c>
@@ -88015,7 +89367,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="616" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>120</v>
       </c>
@@ -88025,8 +89377,11 @@
       <c r="O616" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="617" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V616" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="617" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>60</v>
       </c>
@@ -88036,8 +89391,11 @@
       <c r="O617" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="618" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W617" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="618" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>60</v>
       </c>
@@ -88047,8 +89405,11 @@
       <c r="O618" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="619" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V618" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="619" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>120</v>
       </c>
@@ -88058,8 +89419,11 @@
       <c r="O619" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="620" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V619" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="620" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>90</v>
       </c>
@@ -88069,8 +89433,11 @@
       <c r="O620" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="621" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V620" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="621" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>30</v>
       </c>
@@ -88081,7 +89448,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="622" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>60</v>
       </c>
@@ -88091,8 +89458,11 @@
       <c r="O622" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="623" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V622" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="623" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>60</v>
       </c>
@@ -88102,8 +89472,14 @@
       <c r="O623" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="624" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W623" t="s">
+        <v>32</v>
+      </c>
+      <c r="X623" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="624" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>120</v>
       </c>
@@ -88114,7 +89490,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="625" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>80</v>
       </c>
@@ -88125,7 +89501,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="626" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>0</v>
       </c>
@@ -88135,8 +89511,11 @@
       <c r="O626" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="627" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W626" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="627" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>50</v>
       </c>
@@ -88146,8 +89525,11 @@
       <c r="O627" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="628" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V627" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="628" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>60</v>
       </c>
@@ -88157,8 +89539,11 @@
       <c r="O628" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="629" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V628" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="629" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>30</v>
       </c>
@@ -88168,8 +89553,11 @@
       <c r="O629" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="630" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X629" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="630" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>50</v>
       </c>
@@ -88179,8 +89567,14 @@
       <c r="O630" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="631" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W630" t="s">
+        <v>32</v>
+      </c>
+      <c r="X630" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="631" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>20</v>
       </c>
@@ -88191,7 +89585,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="632" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>45</v>
       </c>
@@ -88201,8 +89595,11 @@
       <c r="O632" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="633" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X632" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="633" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>5</v>
       </c>
@@ -88213,7 +89610,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="634" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>90</v>
       </c>
@@ -88223,8 +89620,11 @@
       <c r="O634" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="635" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V634" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="635" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>60</v>
       </c>
@@ -88235,7 +89635,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="636" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>10</v>
       </c>
@@ -88245,8 +89645,11 @@
       <c r="O636" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="637" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W636" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="637" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>40</v>
       </c>
@@ -88257,7 +89660,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="638" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>45</v>
       </c>
@@ -88267,8 +89670,11 @@
       <c r="O638" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="639" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W638" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="639" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>30</v>
       </c>
@@ -88279,7 +89685,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="640" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>45</v>
       </c>
@@ -88290,7 +89696,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="641" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>360</v>
       </c>
@@ -88301,7 +89707,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="642" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>0</v>
       </c>
@@ -88311,8 +89717,11 @@
       <c r="O642" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="643" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V642" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="643" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>20</v>
       </c>
@@ -88322,8 +89731,11 @@
       <c r="O643" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="644" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W643" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="644" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>120</v>
       </c>
@@ -88333,8 +89745,11 @@
       <c r="O644" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="645" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W644" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="645" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>0</v>
       </c>
@@ -88344,8 +89759,11 @@
       <c r="O645" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="646" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V645" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="646" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>120</v>
       </c>
@@ -88355,8 +89773,11 @@
       <c r="O646" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="647" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V646" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="647" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>110</v>
       </c>
@@ -88366,8 +89787,11 @@
       <c r="O647" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="648" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U647" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="648" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>60</v>
       </c>
@@ -88377,8 +89801,11 @@
       <c r="O648" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="649" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X648" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="649" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>60</v>
       </c>
@@ -88388,8 +89815,11 @@
       <c r="O649" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="650" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W649" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="650" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>40</v>
       </c>
@@ -88400,7 +89830,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="651" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>120</v>
       </c>
@@ -88410,8 +89840,11 @@
       <c r="O651" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="652" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V651" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="652" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>30</v>
       </c>
@@ -88421,8 +89854,14 @@
       <c r="O652" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="653" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W652" t="s">
+        <v>32</v>
+      </c>
+      <c r="X652" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="653" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>90</v>
       </c>
@@ -88433,7 +89872,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="654" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>15</v>
       </c>
@@ -88443,8 +89882,11 @@
       <c r="O654" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="655" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W654" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="655" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>0</v>
       </c>
@@ -88454,8 +89896,14 @@
       <c r="O655" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="656" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V655" t="s">
+        <v>31</v>
+      </c>
+      <c r="W655" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="656" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>5</v>
       </c>
@@ -88466,7 +89914,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="657" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>60</v>
       </c>
@@ -88477,7 +89925,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="658" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>3</v>
       </c>
@@ -88487,8 +89935,11 @@
       <c r="O658" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="659" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W658" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="659" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>180</v>
       </c>
@@ -88498,8 +89949,11 @@
       <c r="O659" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="660" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W659" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="660" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>0</v>
       </c>
@@ -88509,8 +89963,11 @@
       <c r="O660" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="661" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W660" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="661" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>70</v>
       </c>
@@ -88520,8 +89977,11 @@
       <c r="O661" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="662" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X661" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="662" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>60</v>
       </c>
@@ -88532,7 +89992,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="663" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>0</v>
       </c>
@@ -88542,8 +90002,14 @@
       <c r="O663" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="664" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V663" t="s">
+        <v>31</v>
+      </c>
+      <c r="W663" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="664" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>10</v>
       </c>
@@ -88554,7 +90020,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="665" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>45</v>
       </c>
@@ -88564,8 +90030,11 @@
       <c r="O665" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="666" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W665" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="666" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>30</v>
       </c>
@@ -88576,7 +90045,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="667" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>30</v>
       </c>
@@ -88586,8 +90055,11 @@
       <c r="O667" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="668" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W667" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="668" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>120</v>
       </c>
@@ -88598,7 +90070,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="669" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>100</v>
       </c>
@@ -88608,8 +90080,11 @@
       <c r="O669" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="670" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V669" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="670" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>600</v>
       </c>
@@ -88619,8 +90094,11 @@
       <c r="O670" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="671" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W670" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="671" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>2</v>
       </c>
@@ -88630,8 +90108,11 @@
       <c r="O671" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="672" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X671" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="672" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>40</v>
       </c>
@@ -88641,8 +90122,11 @@
       <c r="O672" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="673" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W672" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="673" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>150</v>
       </c>
@@ -88652,8 +90136,11 @@
       <c r="O673" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="674" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V673" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="674" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>100</v>
       </c>
@@ -88663,8 +90150,11 @@
       <c r="O674" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="675" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X674" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="675" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>140</v>
       </c>
@@ -88674,8 +90164,11 @@
       <c r="O675" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="676" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W675" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="676" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>45</v>
       </c>
@@ -88685,8 +90178,11 @@
       <c r="O676" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="677" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V676" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="677" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>120</v>
       </c>
@@ -88697,7 +90193,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="678" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>120</v>
       </c>
@@ -88708,7 +90204,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="679" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>2</v>
       </c>
@@ -88719,7 +90215,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="680" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>60</v>
       </c>
@@ -88729,8 +90225,11 @@
       <c r="O680" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="681" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V680" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="681" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>60</v>
       </c>
@@ -88741,7 +90240,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="682" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>30</v>
       </c>
@@ -88752,7 +90251,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="683" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>10</v>
       </c>
@@ -88763,7 +90262,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="684" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>20</v>
       </c>
@@ -88774,7 +90273,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="685" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>120</v>
       </c>
@@ -88785,7 +90284,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="686" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>120</v>
       </c>
@@ -88796,7 +90295,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="687" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>20</v>
       </c>
@@ -88806,8 +90305,11 @@
       <c r="O687" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="688" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W687" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="688" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>70</v>
       </c>
@@ -88818,7 +90320,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="689" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>40</v>
       </c>
@@ -88829,7 +90331,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="690" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>15</v>
       </c>
@@ -88839,8 +90341,14 @@
       <c r="O690" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="691" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V690" t="s">
+        <v>31</v>
+      </c>
+      <c r="W690" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="691" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>8</v>
       </c>
@@ -88851,7 +90359,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="692" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>10</v>
       </c>
@@ -88862,7 +90370,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="693" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>180</v>
       </c>
@@ -88873,7 +90381,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="694" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>0</v>
       </c>
@@ -88883,8 +90391,14 @@
       <c r="O694" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="695" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W694" t="s">
+        <v>32</v>
+      </c>
+      <c r="X694" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="695" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>50</v>
       </c>
@@ -88895,7 +90409,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="696" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>60</v>
       </c>
@@ -88906,7 +90420,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="697" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>45</v>
       </c>
@@ -88916,8 +90430,11 @@
       <c r="O697" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="698" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X697" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="698" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>60</v>
       </c>
@@ -88927,8 +90444,11 @@
       <c r="O698" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="699" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V698" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="699" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>90</v>
       </c>
@@ -88938,8 +90458,11 @@
       <c r="O699" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="700" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X699" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="700" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>150</v>
       </c>
@@ -88949,8 +90472,11 @@
       <c r="O700" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="701" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X700" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="701" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>40</v>
       </c>
@@ -88960,8 +90486,11 @@
       <c r="O701" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="702" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V701" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="702" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>180</v>
       </c>
@@ -88971,8 +90500,11 @@
       <c r="O702" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="703" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W702" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="703" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>30</v>
       </c>
@@ -88982,8 +90514,11 @@
       <c r="O703" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="704" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W703" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="704" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>30</v>
       </c>
@@ -88994,7 +90529,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="705" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>50</v>
       </c>
@@ -89004,8 +90539,11 @@
       <c r="O705" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="706" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V705" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="706" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>60</v>
       </c>
@@ -89016,7 +90554,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="707" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>90</v>
       </c>
@@ -89027,7 +90565,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="708" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>120</v>
       </c>
@@ -89038,7 +90576,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="709" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>0</v>
       </c>
@@ -89048,8 +90586,11 @@
       <c r="O709" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="710" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W709" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="710" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>2</v>
       </c>
@@ -89059,8 +90600,11 @@
       <c r="O710" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="711" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V710" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="711" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>30</v>
       </c>
@@ -89070,8 +90614,11 @@
       <c r="O711" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="712" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V711" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="712" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>0</v>
       </c>
@@ -89081,8 +90628,11 @@
       <c r="O712" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="713" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V712" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="713" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>75</v>
       </c>
@@ -89092,8 +90642,11 @@
       <c r="O713" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="714" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X713" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="714" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>0</v>
       </c>
@@ -89104,7 +90657,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="715" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>30</v>
       </c>
@@ -89115,7 +90668,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="716" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>80</v>
       </c>
@@ -89125,8 +90678,11 @@
       <c r="O716" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="717" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V716" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="717" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>15</v>
       </c>
@@ -89136,8 +90692,11 @@
       <c r="O717" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="718" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W717" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="718" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>40</v>
       </c>
@@ -89147,8 +90706,11 @@
       <c r="O718" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="719" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W718" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="719" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>60</v>
       </c>
@@ -89158,8 +90720,11 @@
       <c r="O719" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="720" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X719" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="720" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>30</v>
       </c>
@@ -89170,7 +90735,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="721" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>135</v>
       </c>
@@ -89180,8 +90745,11 @@
       <c r="O721" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="722" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X721" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="722" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>0</v>
       </c>
@@ -89192,7 +90760,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="723" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>90</v>
       </c>
@@ -89202,8 +90770,11 @@
       <c r="O723" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="724" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W723" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="724" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>120</v>
       </c>
@@ -89213,8 +90784,11 @@
       <c r="O724" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="725" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U724" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="725" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>40</v>
       </c>
@@ -89224,8 +90798,11 @@
       <c r="O725" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="726" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X725" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="726" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>10</v>
       </c>
@@ -89235,8 +90812,11 @@
       <c r="O726" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="727" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W726" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="727" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>70</v>
       </c>
@@ -89247,7 +90827,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="728" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>30</v>
       </c>
@@ -89258,7 +90838,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="729" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>30</v>
       </c>
@@ -89268,8 +90848,11 @@
       <c r="O729" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="730" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X729" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="730" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>60</v>
       </c>
@@ -89279,8 +90862,11 @@
       <c r="O730" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="731" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X730" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="731" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>90</v>
       </c>
@@ -89290,8 +90876,11 @@
       <c r="O731" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="732" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W731" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="732" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>50</v>
       </c>
@@ -89301,8 +90890,11 @@
       <c r="O732" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="733" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V732" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="733" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>240</v>
       </c>
@@ -89313,7 +90905,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="734" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>60</v>
       </c>
@@ -89323,8 +90915,11 @@
       <c r="O734" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="735" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X734" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="735" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>20</v>
       </c>
@@ -89334,8 +90929,11 @@
       <c r="O735" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="736" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V735" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="736" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>40</v>
       </c>
@@ -89345,8 +90943,11 @@
       <c r="O736" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="737" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V736" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="737" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>0</v>
       </c>
@@ -89356,8 +90957,11 @@
       <c r="O737" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="738" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X737" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="738" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>30</v>
       </c>
@@ -89368,7 +90972,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="739" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>45</v>
       </c>
@@ -89378,8 +90982,11 @@
       <c r="O739" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="740" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W739" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="740" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>300</v>
       </c>
@@ -89390,7 +90997,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="741" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>15</v>
       </c>
@@ -89400,8 +91007,11 @@
       <c r="O741" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="742" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="X741" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="742" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>220</v>
       </c>
@@ -89412,7 +91022,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="743" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>20</v>
       </c>
@@ -89423,7 +91033,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="744" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>80</v>
       </c>
@@ -89434,7 +91044,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="745" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>30</v>
       </c>
@@ -89444,8 +91054,11 @@
       <c r="O745" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="746" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V745" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="746" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>45</v>
       </c>
@@ -89455,8 +91068,11 @@
       <c r="O746" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="747" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V746" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="747" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>40</v>
       </c>
@@ -89466,8 +91082,11 @@
       <c r="O747" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="748" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W747" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="748" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>10</v>
       </c>
@@ -89477,8 +91096,14 @@
       <c r="O748" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="749" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W748" t="s">
+        <v>32</v>
+      </c>
+      <c r="X748" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="749" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>30</v>
       </c>
@@ -89488,8 +91113,11 @@
       <c r="O749" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="750" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V749" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="750" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>40</v>
       </c>
@@ -89499,8 +91127,11 @@
       <c r="O750" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="751" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V750" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="751" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A751">
         <v>60</v>
       </c>
@@ -89511,7 +91142,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="752" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A752">
         <v>45</v>
       </c>
@@ -89522,7 +91153,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="753" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A753">
         <v>100</v>
       </c>
@@ -89532,8 +91163,11 @@
       <c r="O753" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="754" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W753" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="754" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A754">
         <v>25</v>
       </c>
@@ -89542,6 +91176,9 @@
       </c>
       <c r="O754" t="s">
         <v>80</v>
+      </c>
+      <c r="V754" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
